--- a/Jogos_da_Semana_FlashScore_2024-10-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-06.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -1135,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.4</v>
@@ -1162,7 +1162,7 @@
         <v>19</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
@@ -1177,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
         <v>9.5</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1255,7 +1255,7 @@
         <v>41</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD4" t="n">
         <v>160</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1490,7 +1490,7 @@
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1505,10 +1505,10 @@
         <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1565,10 +1565,10 @@
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1577,7 +1577,7 @@
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1598,7 +1598,7 @@
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
@@ -1607,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>34</v>
@@ -1616,10 +1616,10 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>2.2</v>
@@ -1672,7 +1672,7 @@
         <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1687,10 +1687,10 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -1699,13 +1699,13 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>9.5</v>
@@ -1720,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
         <v>17</v>
@@ -1738,13 +1738,13 @@
         <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1771,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
         <v>3.5</v>
@@ -1783,28 +1783,28 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>81</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1887,16 +1887,16 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
@@ -1911,7 +1911,7 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1929,13 +1929,13 @@
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
         <v>4.75</v>
@@ -1947,7 +1947,7 @@
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1968,19 +1968,19 @@
         <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>41</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC8" t="n">
         <v>151</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2051,16 +2051,16 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
         <v>1.75</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
         <v>29</v>
@@ -2090,13 +2090,13 @@
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
@@ -2105,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
@@ -2138,7 +2138,7 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
         <v>41</v>
@@ -2206,10 +2206,10 @@
         <v>4.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
         <v>4.75</v>
@@ -2224,7 +2224,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -2233,22 +2233,22 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
         <v>8</v>
@@ -2311,7 +2311,7 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
         <v>7.5</v>
@@ -2329,10 +2329,10 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY10" t="n">
         <v>8.5</v>
@@ -2385,34 +2385,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H11" t="n">
         <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.4</v>
@@ -2439,22 +2439,22 @@
         <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
         <v>51</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2493,19 +2493,19 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>41</v>
@@ -2523,7 +2523,7 @@
         <v>13</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>34</v>
@@ -2588,7 +2588,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O12" t="n">
         <v>1.07</v>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -3325,16 +3325,16 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
         <v>1.95</v>
@@ -3343,10 +3343,10 @@
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -3361,10 +3361,10 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -3373,37 +3373,37 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH16" t="n">
         <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP16" t="n">
         <v>34</v>
       </c>
-      <c r="AN16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR16" t="n">
         <v>101</v>
@@ -3412,7 +3412,7 @@
         <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3424,10 +3424,10 @@
         <v>126</v>
       </c>
       <c r="AX16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ16" t="n">
         <v>23</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
@@ -3492,7 +3492,7 @@
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -3501,16 +3501,16 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3537,7 +3537,7 @@
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3549,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -3600,10 +3600,10 @@
         <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX17" t="n">
         <v>4.33</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H21" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K21" t="n">
         <v>2.75</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -4229,127 +4229,127 @@
         <v>21</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R21" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
         <v>10</v>
       </c>
       <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE21" t="n">
         <v>21</v>
       </c>
-      <c r="AC21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19</v>
-      </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP21" t="n">
         <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
         <v>34</v>
       </c>
       <c r="AS21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY21" t="n">
         <v>41</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
         <v>151</v>
       </c>
       <c r="BB21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4835,7 +4835,7 @@
         <v>9</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ24" t="n">
         <v>8.5</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
         <v>3.4</v>
@@ -5020,10 +5020,10 @@
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
         <v>23</v>
@@ -5262,7 +5262,7 @@
         <v>251</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -5664,7 +5664,7 @@
         <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
         <v>1.91</v>
@@ -5685,22 +5685,22 @@
         <v>17</v>
       </c>
       <c r="O29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R29" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S29" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U29" t="n">
         <v>1.5</v>
@@ -5709,7 +5709,7 @@
         <v>2.5</v>
       </c>
       <c r="W29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -5733,7 +5733,7 @@
         <v>7.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>34</v>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
         <v>13</v>
@@ -5772,13 +5772,13 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS29" t="n">
         <v>101</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5796,7 +5796,7 @@
         <v>10</v>
       </c>
       <c r="AZ29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -6404,7 +6404,7 @@
         <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -6431,16 +6431,16 @@
         <v>3.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W33" t="n">
         <v>10</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
@@ -6571,76 +6571,76 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V34" t="n">
         <v>2.05</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.1</v>
       </c>
       <c r="W34" t="n">
         <v>8.5</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA34" t="n">
         <v>17</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>15</v>
       </c>
       <c r="AB34" t="n">
         <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE34" t="n">
         <v>13</v>
@@ -6649,37 +6649,37 @@
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
         <v>12</v>
       </c>
       <c r="AK34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL34" t="n">
         <v>26</v>
       </c>
       <c r="AM34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
         <v>51</v>
@@ -6688,7 +6688,7 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
         <v>7.5</v>
@@ -6706,7 +6706,7 @@
         <v>19</v>
       </c>
       <c r="AZ34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>2.25</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -6801,19 +6801,19 @@
         <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="n">
         <v>26</v>
@@ -6822,7 +6822,7 @@
         <v>13</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE35" t="n">
         <v>12</v>
@@ -6834,25 +6834,25 @@
         <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI35" t="n">
         <v>13</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO35" t="n">
         <v>15</v>
@@ -6861,10 +6861,10 @@
         <v>21</v>
       </c>
       <c r="AQ35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS35" t="n">
         <v>126</v>
@@ -6882,7 +6882,7 @@
         <v>451</v>
       </c>
       <c r="AX35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY35" t="n">
         <v>13</v>
@@ -6900,7 +6900,7 @@
         <v>126</v>
       </c>
       <c r="BD35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
@@ -7117,19 +7117,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L37" t="n">
         <v>5</v>
@@ -7159,22 +7159,22 @@
         <v>3.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W37" t="n">
         <v>10</v>
       </c>
       <c r="X37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="n">
         <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
         <v>11</v>
@@ -7186,7 +7186,7 @@
         <v>19</v>
       </c>
       <c r="AD37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
@@ -7195,7 +7195,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
         <v>19</v>
@@ -7216,7 +7216,7 @@
         <v>34</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO37" t="n">
         <v>7.5</v>
@@ -7246,10 +7246,10 @@
         <v>351</v>
       </c>
       <c r="AX37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ37" t="n">
         <v>26</v>
@@ -7329,10 +7329,10 @@
         <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R38" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S38" t="n">
         <v>1.33</v>
@@ -7663,16 +7663,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
@@ -7684,19 +7684,19 @@
         <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S40" t="n">
         <v>1.5</v>
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="X40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z40" t="n">
         <v>17</v>
@@ -7729,7 +7729,7 @@
         <v>34</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD40" t="n">
         <v>6.5</v>
@@ -7792,7 +7792,7 @@
         <v>51</v>
       </c>
       <c r="AX40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY40" t="n">
         <v>23</v>
@@ -7845,10 +7845,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I41" t="n">
         <v>13</v>
@@ -7857,10 +7857,10 @@
         <v>1.67</v>
       </c>
       <c r="K41" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
@@ -7869,22 +7869,22 @@
         <v>13</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41" t="n">
         <v>2.75</v>
@@ -7944,13 +7944,13 @@
         <v>101</v>
       </c>
       <c r="AN41" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AO41" t="n">
         <v>5.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ41" t="n">
         <v>13</v>
@@ -7962,10 +7962,10 @@
         <v>201</v>
       </c>
       <c r="AT41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV41" t="n">
         <v>101</v>
@@ -8027,28 +8027,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -8069,22 +8069,22 @@
         <v>2.5</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
         <v>6.5</v>
       </c>
       <c r="X42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA42" t="n">
         <v>19</v>
@@ -8108,19 +8108,19 @@
         <v>351</v>
       </c>
       <c r="AH42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM42" t="n">
         <v>41</v>
@@ -8129,10 +8129,10 @@
         <v>4</v>
       </c>
       <c r="AO42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ42" t="n">
         <v>41</v>
@@ -8156,13 +8156,13 @@
         <v>126</v>
       </c>
       <c r="AX42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA42" t="n">
         <v>67</v>
@@ -8233,10 +8233,10 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
         <v>2.1</v>
@@ -8391,40 +8391,40 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
         <v>4.75</v>
       </c>
       <c r="J44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K44" t="n">
         <v>2.38</v>
       </c>
-      <c r="K44" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L44" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S44" t="n">
         <v>1.33</v>
@@ -8433,13 +8433,13 @@
         <v>3.25</v>
       </c>
       <c r="U44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X44" t="n">
         <v>9</v>
@@ -8454,10 +8454,10 @@
         <v>13</v>
       </c>
       <c r="AB44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD44" t="n">
         <v>7</v>
@@ -8469,13 +8469,13 @@
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH44" t="n">
         <v>15</v>
       </c>
       <c r="AI44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ44" t="n">
         <v>15</v>
@@ -8487,31 +8487,31 @@
         <v>34</v>
       </c>
       <c r="AM44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO44" t="n">
         <v>9</v>
       </c>
       <c r="AP44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ44" t="n">
         <v>29</v>
       </c>
       <c r="AR44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS44" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT44" t="n">
         <v>3.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
@@ -8520,25 +8520,25 @@
         <v>126</v>
       </c>
       <c r="AX44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY44" t="n">
         <v>23</v>
       </c>
       <c r="AZ44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB44" t="n">
         <v>81</v>
       </c>
       <c r="BC44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD44" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45">
@@ -8573,13 +8573,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H45" t="n">
         <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
         <v>2</v>
@@ -8588,13 +8588,13 @@
         <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8624,13 +8624,13 @@
         <v>6</v>
       </c>
       <c r="X45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8669,13 +8669,13 @@
         <v>51</v>
       </c>
       <c r="AM45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN45" t="n">
         <v>3.25</v>
       </c>
       <c r="AO45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP45" t="n">
         <v>21</v>
@@ -8693,7 +8693,7 @@
         <v>2.75</v>
       </c>
       <c r="AU45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV45" t="n">
         <v>67</v>
@@ -8702,7 +8702,7 @@
         <v>126</v>
       </c>
       <c r="AX45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY45" t="n">
         <v>41</v>
@@ -8758,7 +8758,7 @@
         <v>1.55</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
         <v>6.5</v>
@@ -8776,7 +8776,7 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.4</v>
@@ -8818,7 +8818,7 @@
         <v>15</v>
       </c>
       <c r="AB46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC46" t="n">
         <v>7.5</v>
@@ -8937,28 +8937,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I47" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J47" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K47" t="n">
         <v>1.91</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M47" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O47" t="n">
         <v>1.53</v>
@@ -8979,25 +8979,25 @@
         <v>2.2</v>
       </c>
       <c r="U47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V47" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W47" t="n">
         <v>5.5</v>
       </c>
       <c r="X47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y47" t="n">
         <v>10</v>
       </c>
       <c r="Z47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
@@ -9006,7 +9006,7 @@
         <v>6</v>
       </c>
       <c r="AD47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE47" t="n">
         <v>21</v>
@@ -9018,34 +9018,34 @@
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK47" t="n">
         <v>41</v>
       </c>
       <c r="AL47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM47" t="n">
         <v>51</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP47" t="n">
         <v>29</v>
       </c>
       <c r="AQ47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR47" t="n">
         <v>81</v>
@@ -9066,19 +9066,19 @@
         <v>126</v>
       </c>
       <c r="AX47" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY47" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB47" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC47" t="n">
         <v>351</v>
@@ -9119,28 +9119,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K48" t="n">
         <v>2.1</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
         <v>1.36</v>
@@ -9149,10 +9149,10 @@
         <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R48" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
         <v>1.44</v>
@@ -9161,22 +9161,22 @@
         <v>2.63</v>
       </c>
       <c r="U48" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W48" t="n">
         <v>6</v>
       </c>
       <c r="X48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA48" t="n">
         <v>15</v>
@@ -9188,25 +9188,25 @@
         <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF48" t="n">
         <v>67</v>
       </c>
       <c r="AG48" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI48" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK48" t="n">
         <v>51</v>
@@ -9218,16 +9218,16 @@
         <v>51</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO48" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR48" t="n">
         <v>51</v>
@@ -9248,22 +9248,22 @@
         <v>126</v>
       </c>
       <c r="AX48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA48" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB48" t="n">
         <v>126</v>
       </c>
-      <c r="BB48" t="n">
-        <v>151</v>
-      </c>
       <c r="BC48" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD48" t="n">
         <v>126</v>
@@ -9331,10 +9331,10 @@
         <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R49" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S49" t="n">
         <v>1.36</v>
@@ -9483,40 +9483,40 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H50" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K50" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S50" t="n">
         <v>1.36</v>
@@ -9525,22 +9525,22 @@
         <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V50" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W50" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X50" t="n">
         <v>5.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA50" t="n">
         <v>13</v>
@@ -9549,10 +9549,10 @@
         <v>41</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE50" t="n">
         <v>29</v>
@@ -9585,16 +9585,16 @@
         <v>3</v>
       </c>
       <c r="AO50" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP50" t="n">
         <v>21</v>
       </c>
       <c r="AQ50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS50" t="n">
         <v>201</v>
@@ -9621,7 +9621,7 @@
         <v>51</v>
       </c>
       <c r="BA50" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB50" t="n">
         <v>351</v>
@@ -9871,16 +9871,16 @@
         <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R52" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S52" t="n">
         <v>1.3</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
@@ -10241,34 +10241,34 @@
         <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R54" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S54" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
         <v>15</v>
@@ -10280,22 +10280,22 @@
         <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH54" t="n">
         <v>12</v>
       </c>
       <c r="AI54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ54" t="n">
         <v>13</v>
@@ -10304,16 +10304,16 @@
         <v>41</v>
       </c>
       <c r="AL54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP54" t="n">
         <v>21</v>
@@ -10325,10 +10325,10 @@
         <v>51</v>
       </c>
       <c r="AS54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU54" t="n">
         <v>8</v>
@@ -10340,22 +10340,22 @@
         <v>81</v>
       </c>
       <c r="AX54" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY54" t="n">
         <v>21</v>
       </c>
       <c r="AZ54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC54" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD54" t="n">
         <v>81</v>
@@ -10760,10 +10760,10 @@
         <v>3.1</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J57" t="n">
         <v>3.6</v>
@@ -10772,7 +10772,7 @@
         <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
@@ -10787,28 +10787,28 @@
         <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R57" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T57" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U57" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y57" t="n">
         <v>11</v>
@@ -10823,7 +10823,7 @@
         <v>29</v>
       </c>
       <c r="AC57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD57" t="n">
         <v>6.5</v>
@@ -10835,7 +10835,7 @@
         <v>41</v>
       </c>
       <c r="AG57" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH57" t="n">
         <v>8.5</v>
@@ -10844,13 +10844,13 @@
         <v>11</v>
       </c>
       <c r="AJ57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK57" t="n">
         <v>21</v>
       </c>
       <c r="AL57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM57" t="n">
         <v>26</v>
@@ -10874,7 +10874,7 @@
         <v>151</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU57" t="n">
         <v>7.5</v>
@@ -10889,7 +10889,7 @@
         <v>4.33</v>
       </c>
       <c r="AY57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ57" t="n">
         <v>21</v>
@@ -10901,7 +10901,7 @@
         <v>51</v>
       </c>
       <c r="BC57" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD57" t="n">
         <v>151</v>
@@ -10939,16 +10939,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H58" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I58" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K58" t="n">
         <v>2.4</v>
@@ -10957,22 +10957,22 @@
         <v>3.6</v>
       </c>
       <c r="M58" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P58" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R58" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S58" t="n">
         <v>1.29</v>
@@ -10996,19 +10996,19 @@
         <v>9</v>
       </c>
       <c r="Z58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA58" t="n">
         <v>15</v>
       </c>
       <c r="AB58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE58" t="n">
         <v>12</v>
@@ -11023,7 +11023,7 @@
         <v>15</v>
       </c>
       <c r="AI58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="n">
         <v>12</v>
@@ -11035,13 +11035,13 @@
         <v>23</v>
       </c>
       <c r="AM58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP58" t="n">
         <v>17</v>
@@ -11053,7 +11053,7 @@
         <v>41</v>
       </c>
       <c r="AS58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT58" t="n">
         <v>3.5</v>
@@ -11065,7 +11065,7 @@
         <v>41</v>
       </c>
       <c r="AW58" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX58" t="n">
         <v>5.5</v>
@@ -11121,10 +11121,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H59" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I59" t="n">
         <v>1.7</v>
@@ -11151,10 +11151,10 @@
         <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R59" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S59" t="n">
         <v>1.29</v>
@@ -11190,7 +11190,7 @@
         <v>15</v>
       </c>
       <c r="AD59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE59" t="n">
         <v>13</v>
@@ -11199,7 +11199,7 @@
         <v>41</v>
       </c>
       <c r="AG59" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH59" t="n">
         <v>9.5</v>
@@ -11214,7 +11214,7 @@
         <v>15</v>
       </c>
       <c r="AL59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM59" t="n">
         <v>21</v>
@@ -11223,7 +11223,7 @@
         <v>6.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP59" t="n">
         <v>26</v>
@@ -11485,13 +11485,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H61" t="n">
         <v>4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
         <v>1.91</v>
@@ -11533,16 +11533,16 @@
         <v>1.53</v>
       </c>
       <c r="W61" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X61" t="n">
         <v>5.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA61" t="n">
         <v>13</v>
@@ -11551,7 +11551,7 @@
         <v>34</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD61" t="n">
         <v>9</v>
@@ -11560,31 +11560,31 @@
         <v>26</v>
       </c>
       <c r="AF61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG61" t="n">
         <v>351</v>
       </c>
       <c r="AH61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI61" t="n">
         <v>41</v>
       </c>
       <c r="AJ61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK61" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL61" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO61" t="n">
         <v>6.5</v>
@@ -11605,7 +11605,7 @@
         <v>2.75</v>
       </c>
       <c r="AU61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV61" t="n">
         <v>81</v>
@@ -11614,7 +11614,7 @@
         <v>51</v>
       </c>
       <c r="AX61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY61" t="n">
         <v>41</v>
@@ -11623,7 +11623,7 @@
         <v>51</v>
       </c>
       <c r="BA61" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB61" t="n">
         <v>251</v>
@@ -11685,10 +11685,10 @@
         <v>4.33</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O62" t="n">
         <v>1.29</v>
@@ -11721,7 +11721,7 @@
         <v>9</v>
       </c>
       <c r="Y62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z62" t="n">
         <v>17</v>
@@ -11796,7 +11796,7 @@
         <v>51</v>
       </c>
       <c r="AX62" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY62" t="n">
         <v>21</v>
@@ -11808,7 +11808,7 @@
         <v>67</v>
       </c>
       <c r="BB62" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC62" t="n">
         <v>201</v>
@@ -11849,10 +11849,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I63" t="n">
         <v>4.5</v>
@@ -11861,7 +11861,7 @@
         <v>2.3</v>
       </c>
       <c r="K63" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L63" t="n">
         <v>5</v>
@@ -11879,16 +11879,16 @@
         <v>3.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R63" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S63" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T63" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63" t="n">
         <v>1.83</v>
@@ -11909,7 +11909,7 @@
         <v>13</v>
       </c>
       <c r="AA63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB63" t="n">
         <v>26</v>
@@ -11951,10 +11951,10 @@
         <v>3.6</v>
       </c>
       <c r="AO63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ63" t="n">
         <v>29</v>
@@ -11966,7 +11966,7 @@
         <v>151</v>
       </c>
       <c r="AT63" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU63" t="n">
         <v>8.5</v>
@@ -12213,151 +12213,151 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="J65" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="K65" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L65" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P65" t="n">
-        <v>3.78</v>
+        <v>3.9</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R65" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T65" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="U65" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V65" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W65" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X65" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="Y65" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="Z65" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA65" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AB65" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC65" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE65" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF65" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG65" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH65" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AJ65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK65" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM65" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN65" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="AO65" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP65" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR65" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS65" t="n">
         <v>175</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU65" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AV65" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW65" t="n">
         <v>51</v>
       </c>
       <c r="AX65" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AY65" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AZ65" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="BA65" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BB65" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC65" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD65" t="n">
         <v>51</v>
@@ -12395,22 +12395,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>3.3</v>
       </c>
       <c r="I66" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J66" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K66" t="n">
         <v>2.25</v>
       </c>
       <c r="L66" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M66" t="n">
         <v>1.04</v>
@@ -12446,7 +12446,7 @@
         <v>10</v>
       </c>
       <c r="X66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y66" t="n">
         <v>10</v>
@@ -12479,7 +12479,7 @@
         <v>10</v>
       </c>
       <c r="AI66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ66" t="n">
         <v>10</v>
@@ -12497,7 +12497,7 @@
         <v>4.75</v>
       </c>
       <c r="AO66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP66" t="n">
         <v>21</v>
@@ -12527,7 +12527,7 @@
         <v>4.75</v>
       </c>
       <c r="AY66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ66" t="n">
         <v>21</v>
@@ -12577,22 +12577,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>2.63</v>
       </c>
       <c r="L67" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
@@ -12619,22 +12619,22 @@
         <v>4</v>
       </c>
       <c r="U67" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V67" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W67" t="n">
         <v>11</v>
       </c>
       <c r="X67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y67" t="n">
         <v>8.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA67" t="n">
         <v>11</v>
@@ -12655,7 +12655,7 @@
         <v>41</v>
       </c>
       <c r="AG67" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH67" t="n">
         <v>21</v>
@@ -12670,22 +12670,22 @@
         <v>51</v>
       </c>
       <c r="AL67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN67" t="n">
         <v>4</v>
       </c>
       <c r="AO67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP67" t="n">
         <v>13</v>
       </c>
       <c r="AQ67" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR67" t="n">
         <v>34</v>
@@ -12709,10 +12709,10 @@
         <v>7.5</v>
       </c>
       <c r="AY67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA67" t="n">
         <v>81</v>
@@ -13496,7 +13496,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K72" t="n">
         <v>2.25</v>
@@ -13544,7 +13544,7 @@
         <v>9</v>
       </c>
       <c r="Z72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA72" t="n">
         <v>17</v>
@@ -13589,7 +13589,7 @@
         <v>4.33</v>
       </c>
       <c r="AO72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP72" t="n">
         <v>21</v>
@@ -13616,7 +13616,7 @@
         <v>81</v>
       </c>
       <c r="AX72" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY72" t="n">
         <v>17</v>
@@ -13860,7 +13860,7 @@
         <v>2.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K74" t="n">
         <v>2.25</v>
@@ -13914,7 +13914,7 @@
         <v>21</v>
       </c>
       <c r="AB74" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC74" t="n">
         <v>12</v>
@@ -14033,22 +14033,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H75" t="n">
         <v>3.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J75" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K75" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L75" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M75" t="n">
         <v>1.04</v>
@@ -14057,49 +14057,49 @@
         <v>13</v>
       </c>
       <c r="O75" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R75" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V75" t="n">
         <v>2</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T75" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U75" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V75" t="n">
-        <v>2.1</v>
       </c>
       <c r="W75" t="n">
         <v>13</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z75" t="n">
         <v>41</v>
       </c>
       <c r="AA75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD75" t="n">
         <v>7</v>
@@ -14111,19 +14111,19 @@
         <v>41</v>
       </c>
       <c r="AG75" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ75" t="n">
         <v>8.5</v>
       </c>
       <c r="AK75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL75" t="n">
         <v>15</v>
@@ -14138,7 +14138,7 @@
         <v>21</v>
       </c>
       <c r="AP75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ75" t="n">
         <v>67</v>
@@ -14150,10 +14150,10 @@
         <v>151</v>
       </c>
       <c r="AT75" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV75" t="n">
         <v>51</v>
@@ -14177,7 +14177,7 @@
         <v>51</v>
       </c>
       <c r="BC75" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD75" t="n">
         <v>51</v>
@@ -14215,22 +14215,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H76" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I76" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="J76" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="K76" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L76" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
         <v>1.02</v>
@@ -14242,19 +14242,19 @@
         <v>1.11</v>
       </c>
       <c r="P76" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R76" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="S76" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="T76" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="U76" t="n">
         <v>1.33</v>
@@ -14263,7 +14263,7 @@
         <v>3.05</v>
       </c>
       <c r="W76" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X76" t="n">
         <v>17.5</v>
@@ -14272,13 +14272,13 @@
         <v>9.75</v>
       </c>
       <c r="Z76" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA76" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC76" t="n">
         <v>27</v>
@@ -14287,7 +14287,7 @@
         <v>9</v>
       </c>
       <c r="AE76" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF76" t="n">
         <v>25</v>
@@ -14296,10 +14296,10 @@
         <v>100</v>
       </c>
       <c r="AH76" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ76" t="n">
         <v>10.75</v>
@@ -14311,19 +14311,19 @@
         <v>18</v>
       </c>
       <c r="AM76" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN76" t="n">
         <v>5</v>
       </c>
       <c r="AO76" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP76" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR76" t="n">
         <v>45</v>
@@ -14332,7 +14332,7 @@
         <v>100</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AU76" t="n">
         <v>5.9</v>
@@ -14344,19 +14344,19 @@
         <v>300</v>
       </c>
       <c r="AX76" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AY76" t="n">
         <v>13</v>
       </c>
       <c r="AZ76" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BA76" t="n">
         <v>45</v>
       </c>
       <c r="BB76" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BC76" t="n">
         <v>100</v>
@@ -14397,19 +14397,19 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H77" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I77" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J77" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K77" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L77" t="n">
         <v>2.87</v>
@@ -14418,7 +14418,7 @@
         <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
         <v>1.13</v>
@@ -14436,58 +14436,58 @@
         <v>1.24</v>
       </c>
       <c r="T77" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="U77" t="n">
         <v>1.37</v>
       </c>
       <c r="V77" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="W77" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X77" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y77" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z77" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA77" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB77" t="n">
         <v>18</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD77" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG77" t="n">
         <v>120</v>
       </c>
       <c r="AH77" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI77" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ77" t="n">
         <v>10</v>
       </c>
       <c r="AK77" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL77" t="n">
         <v>17</v>
@@ -14496,25 +14496,25 @@
         <v>18</v>
       </c>
       <c r="AN77" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO77" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP77" t="n">
         <v>15</v>
       </c>
       <c r="AQ77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR77" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS77" t="n">
         <v>120</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AU77" t="n">
         <v>6</v>
@@ -14529,13 +14529,13 @@
         <v>5.1</v>
       </c>
       <c r="AY77" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ77" t="n">
         <v>14.5</v>
       </c>
       <c r="BA77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB77" t="n">
         <v>50</v>
@@ -14594,7 +14594,7 @@
         <v>2.3</v>
       </c>
       <c r="L78" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="M78" t="n">
         <v>1.03</v>
@@ -14627,10 +14627,10 @@
         <v>2.55</v>
       </c>
       <c r="W78" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X78" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y78" t="n">
         <v>9.75</v>
@@ -14684,7 +14684,7 @@
         <v>13</v>
       </c>
       <c r="AP78" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ78" t="n">
         <v>50</v>
@@ -14714,7 +14714,7 @@
         <v>12.5</v>
       </c>
       <c r="AZ78" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BA78" t="n">
         <v>45</v>
@@ -14764,19 +14764,19 @@
         <v>1.42</v>
       </c>
       <c r="H79" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="I79" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="K79" t="n">
         <v>2.62</v>
       </c>
       <c r="L79" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M79" t="n">
         <v>1.02</v>
@@ -14794,31 +14794,31 @@
         <v>1.38</v>
       </c>
       <c r="R79" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="S79" t="n">
         <v>1.23</v>
       </c>
       <c r="T79" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="U79" t="n">
         <v>1.53</v>
       </c>
       <c r="V79" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W79" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X79" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y79" t="n">
         <v>8.5</v>
       </c>
       <c r="Z79" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA79" t="n">
         <v>10.25</v>
@@ -14836,13 +14836,13 @@
         <v>14.5</v>
       </c>
       <c r="AF79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH79" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI79" t="n">
         <v>50</v>
@@ -14851,19 +14851,19 @@
         <v>19.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM79" t="n">
         <v>40</v>
       </c>
       <c r="AN79" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO79" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP79" t="n">
         <v>12</v>
@@ -14878,13 +14878,13 @@
         <v>110</v>
       </c>
       <c r="AT79" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW79" t="n">
         <v>500</v>
@@ -14896,16 +14896,16 @@
         <v>30</v>
       </c>
       <c r="AZ79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA79" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB79" t="n">
         <v>150</v>
       </c>
       <c r="BC79" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD79" t="n">
         <v>51</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H81" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I81" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J81" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K81" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M81" t="n">
         <v>1.05</v>
@@ -15149,16 +15149,16 @@
         <v>11</v>
       </c>
       <c r="O81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R81" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S81" t="n">
         <v>1.4</v>
@@ -15167,25 +15167,25 @@
         <v>2.75</v>
       </c>
       <c r="U81" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V81" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W81" t="n">
         <v>6</v>
       </c>
       <c r="X81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB81" t="n">
         <v>29</v>
@@ -15203,37 +15203,37 @@
         <v>67</v>
       </c>
       <c r="AG81" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI81" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL81" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM81" t="n">
         <v>51</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO81" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP81" t="n">
         <v>21</v>
       </c>
       <c r="AQ81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR81" t="n">
         <v>51</v>
@@ -15254,7 +15254,7 @@
         <v>81</v>
       </c>
       <c r="AX81" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY81" t="n">
         <v>34</v>
@@ -15269,7 +15269,7 @@
         <v>151</v>
       </c>
       <c r="BC81" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD81" t="n">
         <v>81</v>
@@ -15328,7 +15328,7 @@
         <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O82" t="n">
         <v>1.33</v>
@@ -15501,7 +15501,7 @@
         <v>6</v>
       </c>
       <c r="K83" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L83" t="n">
         <v>2</v>
@@ -15510,19 +15510,19 @@
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O83" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P83" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R83" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S83" t="n">
         <v>1.3</v>
@@ -15531,10 +15531,10 @@
         <v>3.4</v>
       </c>
       <c r="U83" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V83" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W83" t="n">
         <v>17</v>
@@ -15573,7 +15573,7 @@
         <v>8</v>
       </c>
       <c r="AI83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ83" t="n">
         <v>8.5</v>
@@ -18765,22 +18765,22 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J101" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3.25</v>
       </c>
       <c r="K101" t="n">
         <v>2.25</v>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M101" t="n">
         <v>1.04</v>
@@ -18813,10 +18813,10 @@
         <v>2.25</v>
       </c>
       <c r="W101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y101" t="n">
         <v>11</v>
@@ -18846,19 +18846,19 @@
         <v>126</v>
       </c>
       <c r="AH101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI101" t="n">
         <v>13</v>
       </c>
       <c r="AJ101" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK101" t="n">
         <v>23</v>
       </c>
       <c r="AL101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM101" t="n">
         <v>23</v>
@@ -18873,7 +18873,7 @@
         <v>21</v>
       </c>
       <c r="AQ101" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR101" t="n">
         <v>51</v>
@@ -18894,7 +18894,7 @@
         <v>451</v>
       </c>
       <c r="AX101" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY101" t="n">
         <v>13</v>
@@ -18965,10 +18965,10 @@
         <v>2.6</v>
       </c>
       <c r="M102" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O102" t="n">
         <v>1.44</v>
@@ -18977,10 +18977,10 @@
         <v>2.63</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R102" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S102" t="n">
         <v>1.53</v>
@@ -19061,7 +19061,7 @@
         <v>151</v>
       </c>
       <c r="AS102" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="AT102" t="n">
         <v>2.38</v>
@@ -19129,13 +19129,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H103" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
         <v>1.83</v>
@@ -19144,7 +19144,7 @@
         <v>2.3</v>
       </c>
       <c r="L103" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M103" t="n">
         <v>1.06</v>
@@ -19153,16 +19153,16 @@
         <v>10</v>
       </c>
       <c r="O103" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P103" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R103" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S103" t="n">
         <v>1.4</v>
@@ -19183,7 +19183,7 @@
         <v>5.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z103" t="n">
         <v>7.5</v>
@@ -19195,13 +19195,13 @@
         <v>41</v>
       </c>
       <c r="AC103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD103" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD103" t="n">
-        <v>9</v>
-      </c>
       <c r="AE103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF103" t="n">
         <v>101</v>
@@ -19231,7 +19231,7 @@
         <v>3</v>
       </c>
       <c r="AO103" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP103" t="n">
         <v>23</v>
@@ -20427,10 +20427,10 @@
         <v>10</v>
       </c>
       <c r="O110" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P110" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q110" t="n">
         <v>2.05</v>
@@ -21313,19 +21313,19 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H115" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J115" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K115" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L115" t="n">
         <v>5.5</v>
@@ -21364,13 +21364,13 @@
         <v>7.5</v>
       </c>
       <c r="X115" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y115" t="n">
         <v>8.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA115" t="n">
         <v>13</v>
@@ -21379,7 +21379,7 @@
         <v>26</v>
       </c>
       <c r="AC115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD115" t="n">
         <v>8</v>
@@ -21394,13 +21394,13 @@
         <v>251</v>
       </c>
       <c r="AH115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI115" t="n">
         <v>26</v>
       </c>
       <c r="AJ115" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK115" t="n">
         <v>51</v>
@@ -21498,7 +21498,7 @@
         <v>2.05</v>
       </c>
       <c r="H116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I116" t="n">
         <v>3.5</v>
@@ -21513,10 +21513,10 @@
         <v>4.33</v>
       </c>
       <c r="M116" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O116" t="n">
         <v>1.36</v>
@@ -21525,10 +21525,10 @@
         <v>3</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R116" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S116" t="n">
         <v>1.44</v>
@@ -21546,7 +21546,7 @@
         <v>6.5</v>
       </c>
       <c r="X116" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y116" t="n">
         <v>9</v>
@@ -21555,13 +21555,13 @@
         <v>19</v>
       </c>
       <c r="AA116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB116" t="n">
         <v>29</v>
       </c>
       <c r="AC116" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD116" t="n">
         <v>6.5</v>
@@ -21609,7 +21609,7 @@
         <v>67</v>
       </c>
       <c r="AS116" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT116" t="n">
         <v>2.63</v>
@@ -21677,109 +21677,109 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H117" t="n">
         <v>4.2</v>
       </c>
       <c r="I117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J117" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K117" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L117" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M117" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O117" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P117" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R117" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S117" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T117" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V117" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W117" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X117" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y117" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z117" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA117" t="n">
         <v>13</v>
       </c>
       <c r="AB117" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC117" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD117" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE117" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF117" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG117" t="n">
         <v>501</v>
       </c>
       <c r="AH117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI117" t="n">
         <v>41</v>
       </c>
       <c r="AJ117" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK117" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL117" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM117" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN117" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO117" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP117" t="n">
         <v>21</v>
@@ -21791,37 +21791,37 @@
         <v>51</v>
       </c>
       <c r="AS117" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT117" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU117" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV117" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW117" t="n">
         <v>501</v>
       </c>
       <c r="AX117" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AY117" t="n">
         <v>41</v>
       </c>
       <c r="AZ117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA117" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB117" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC117" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BD117" t="n">
         <v>126</v>
@@ -21859,22 +21859,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="H118" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I118" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="J118" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="K118" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L118" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M118" t="n">
         <v>1.03</v>
@@ -21895,31 +21895,31 @@
         <v>2.4</v>
       </c>
       <c r="S118" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T118" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U118" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V118" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W118" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z118" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA118" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB118" t="n">
         <v>51</v>
@@ -21928,58 +21928,58 @@
         <v>17</v>
       </c>
       <c r="AD118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE118" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF118" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG118" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH118" t="n">
         <v>8</v>
       </c>
       <c r="AI118" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ118" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK118" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AL118" t="n">
         <v>11</v>
       </c>
       <c r="AM118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU118" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AO118" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP118" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ118" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR118" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS118" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT118" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU118" t="n">
-        <v>9</v>
       </c>
       <c r="AV118" t="n">
         <v>51</v>
@@ -21988,10 +21988,10 @@
         <v>501</v>
       </c>
       <c r="AX118" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AY118" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ118" t="n">
         <v>17</v>
@@ -22006,7 +22006,7 @@
         <v>101</v>
       </c>
       <c r="BD118" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
@@ -22041,16 +22041,16 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H119" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I119" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K119" t="n">
         <v>2.6</v>
@@ -22089,16 +22089,16 @@
         <v>2.2</v>
       </c>
       <c r="W119" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X119" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y119" t="n">
         <v>8.5</v>
       </c>
       <c r="Z119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA119" t="n">
         <v>11</v>
@@ -22110,25 +22110,25 @@
         <v>17</v>
       </c>
       <c r="AD119" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF119" t="n">
         <v>41</v>
       </c>
       <c r="AG119" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH119" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ119" t="n">
         <v>21</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>19</v>
       </c>
       <c r="AK119" t="n">
         <v>67</v>
@@ -22143,16 +22143,16 @@
         <v>3.75</v>
       </c>
       <c r="AO119" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP119" t="n">
         <v>15</v>
       </c>
       <c r="AQ119" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS119" t="n">
         <v>81</v>
@@ -22161,7 +22161,7 @@
         <v>3.75</v>
       </c>
       <c r="AU119" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV119" t="n">
         <v>41</v>
@@ -22170,19 +22170,19 @@
         <v>401</v>
       </c>
       <c r="AX119" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY119" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ119" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA119" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB119" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC119" t="n">
         <v>151</v>
@@ -22769,13 +22769,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H123" t="n">
         <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J123" t="n">
         <v>3.4</v>
@@ -22823,7 +22823,7 @@
         <v>12</v>
       </c>
       <c r="Y123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z123" t="n">
         <v>26</v>
@@ -22835,13 +22835,13 @@
         <v>34</v>
       </c>
       <c r="AC123" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD123" t="n">
         <v>6</v>
       </c>
       <c r="AE123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF123" t="n">
         <v>51</v>
@@ -22850,22 +22850,22 @@
         <v>351</v>
       </c>
       <c r="AH123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ123" t="n">
         <v>11</v>
       </c>
       <c r="AK123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL123" t="n">
         <v>23</v>
       </c>
       <c r="AM123" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN123" t="n">
         <v>4.5</v>
@@ -22874,7 +22874,7 @@
         <v>15</v>
       </c>
       <c r="AP123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ123" t="n">
         <v>51</v>
@@ -22898,10 +22898,10 @@
         <v>81</v>
       </c>
       <c r="AX123" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ123" t="n">
         <v>29</v>
@@ -22913,7 +22913,7 @@
         <v>81</v>
       </c>
       <c r="BC123" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD123" t="n">
         <v>81</v>
@@ -23133,13 +23133,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>3.25</v>
       </c>
       <c r="I125" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J125" t="n">
         <v>3.75</v>
@@ -23148,13 +23148,13 @@
         <v>2.1</v>
       </c>
       <c r="L125" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M125" t="n">
         <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O125" t="n">
         <v>1.33</v>
@@ -23175,19 +23175,19 @@
         <v>2.63</v>
       </c>
       <c r="U125" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V125" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X125" t="n">
         <v>15</v>
       </c>
       <c r="Y125" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z125" t="n">
         <v>34</v>
@@ -23199,7 +23199,7 @@
         <v>34</v>
       </c>
       <c r="AC125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD125" t="n">
         <v>6.5</v>
@@ -23315,28 +23315,28 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H126" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I126" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J126" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K126" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L126" t="n">
         <v>7.5</v>
       </c>
       <c r="M126" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O126" t="n">
         <v>1.22</v>
@@ -23345,10 +23345,10 @@
         <v>4</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R126" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S126" t="n">
         <v>1.33</v>
@@ -23357,22 +23357,22 @@
         <v>3.25</v>
       </c>
       <c r="U126" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V126" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W126" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X126" t="n">
         <v>6.5</v>
       </c>
       <c r="Y126" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z126" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA126" t="n">
         <v>12</v>
@@ -23384,13 +23384,13 @@
         <v>13</v>
       </c>
       <c r="AD126" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE126" t="n">
         <v>23</v>
       </c>
       <c r="AF126" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG126" t="n">
         <v>1000</v>
@@ -23423,13 +23423,13 @@
         <v>19</v>
       </c>
       <c r="AQ126" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR126" t="n">
         <v>41</v>
       </c>
       <c r="AS126" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT126" t="n">
         <v>3.25</v>
@@ -23438,13 +23438,13 @@
         <v>9.5</v>
       </c>
       <c r="AV126" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW126" t="n">
         <v>51</v>
       </c>
       <c r="AX126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY126" t="n">
         <v>41</v>
@@ -23456,10 +23456,10 @@
         <v>151</v>
       </c>
       <c r="BB126" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC126" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD126" t="n">
         <v>51</v>
@@ -23679,28 +23679,28 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H128" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I128" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J128" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K128" t="n">
         <v>2.25</v>
       </c>
       <c r="L128" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M128" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N128" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O128" t="n">
         <v>1.25</v>
@@ -23709,16 +23709,16 @@
         <v>4</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R128" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S128" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T128" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128" t="n">
         <v>1.75</v>
@@ -23730,7 +23730,7 @@
         <v>8</v>
       </c>
       <c r="X128" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y128" t="n">
         <v>8.5</v>
@@ -23739,22 +23739,22 @@
         <v>15</v>
       </c>
       <c r="AA128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB128" t="n">
         <v>23</v>
       </c>
       <c r="AC128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD128" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE128" t="n">
         <v>15</v>
       </c>
       <c r="AF128" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG128" t="n">
         <v>201</v>
@@ -23781,13 +23781,13 @@
         <v>4</v>
       </c>
       <c r="AO128" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP128" t="n">
         <v>19</v>
       </c>
       <c r="AQ128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR128" t="n">
         <v>51</v>
@@ -23796,7 +23796,7 @@
         <v>126</v>
       </c>
       <c r="AT128" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU128" t="n">
         <v>7.5</v>
@@ -23814,7 +23814,7 @@
         <v>21</v>
       </c>
       <c r="AZ128" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA128" t="n">
         <v>67</v>
@@ -24228,43 +24228,43 @@
         <v>4</v>
       </c>
       <c r="H131" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I131" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J131" t="n">
         <v>4.4</v>
       </c>
       <c r="K131" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L131" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N131" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O131" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P131" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R131" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S131" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T131" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="U131" t="n">
         <v>1.95</v>
@@ -24273,31 +24273,31 @@
         <v>1.75</v>
       </c>
       <c r="W131" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y131" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z131" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA131" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB131" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC131" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD131" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE131" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF131" t="n">
         <v>90</v>
@@ -24306,31 +24306,31 @@
         <v>900</v>
       </c>
       <c r="AH131" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AI131" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ131" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK131" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL131" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AM131" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN131" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO131" t="n">
         <v>23</v>
       </c>
       <c r="AP131" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ131" t="n">
         <v>120</v>
@@ -24342,10 +24342,10 @@
         <v>400</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU131" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV131" t="n">
         <v>70</v>
@@ -24357,16 +24357,16 @@
         <v>3.7</v>
       </c>
       <c r="AY131" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AZ131" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA131" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BB131" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BC131" t="n">
         <v>250</v>
@@ -24410,19 +24410,19 @@
         <v>1.19</v>
       </c>
       <c r="H132" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="I132" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="J132" t="n">
         <v>1.57</v>
       </c>
       <c r="K132" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="L132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M132" t="n">
         <v>1.03</v>
@@ -24446,10 +24446,10 @@
         <v>1.27</v>
       </c>
       <c r="T132" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U132" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V132" t="n">
         <v>1.65</v>
@@ -24461,22 +24461,22 @@
         <v>6.2</v>
       </c>
       <c r="Y132" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z132" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA132" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB132" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC132" t="n">
         <v>9.5</v>
       </c>
       <c r="AD132" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE132" t="n">
         <v>28</v>
@@ -24488,22 +24488,22 @@
         <v>1000</v>
       </c>
       <c r="AH132" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ132" t="n">
         <v>40</v>
       </c>
-      <c r="AI132" t="n">
+      <c r="AK132" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM132" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM132" t="n">
-        <v>150</v>
       </c>
       <c r="AN132" t="n">
         <v>3.05</v>
@@ -24512,10 +24512,10 @@
         <v>4.9</v>
       </c>
       <c r="AP132" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ132" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AR132" t="n">
         <v>37</v>
@@ -24524,10 +24524,10 @@
         <v>200</v>
       </c>
       <c r="AT132" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU132" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV132" t="n">
         <v>90</v>
@@ -24536,13 +24536,13 @@
         <v>51</v>
       </c>
       <c r="AX132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY132" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AZ132" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA132" t="n">
         <v>450</v>
@@ -24589,28 +24589,28 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H133" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I133" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="J133" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K133" t="n">
         <v>2.18</v>
       </c>
       <c r="L133" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="M133" t="n">
         <v>1.05</v>
       </c>
       <c r="N133" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O133" t="n">
         <v>1.26</v>
@@ -24622,13 +24622,13 @@
         <v>1.8</v>
       </c>
       <c r="R133" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S133" t="n">
         <v>1.39</v>
       </c>
       <c r="T133" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U133" t="n">
         <v>1.7</v>
@@ -24637,16 +24637,16 @@
         <v>2.05</v>
       </c>
       <c r="W133" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X133" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y133" t="n">
         <v>8.75</v>
       </c>
       <c r="Z133" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA133" t="n">
         <v>15</v>
@@ -24655,10 +24655,10 @@
         <v>26</v>
       </c>
       <c r="AC133" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD133" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE133" t="n">
         <v>15</v>
@@ -24670,19 +24670,19 @@
         <v>500</v>
       </c>
       <c r="AH133" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI133" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ133" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK133" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL133" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AM133" t="n">
         <v>40</v>
@@ -24691,16 +24691,16 @@
         <v>3.8</v>
       </c>
       <c r="AO133" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ133" t="n">
         <v>32</v>
       </c>
       <c r="AR133" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS133" t="n">
         <v>200</v>
@@ -24709,7 +24709,7 @@
         <v>2.87</v>
       </c>
       <c r="AU133" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV133" t="n">
         <v>60</v>
@@ -24718,16 +24718,16 @@
         <v>51</v>
       </c>
       <c r="AX133" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AY133" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ133" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA133" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB133" t="n">
         <v>150</v>
@@ -24771,34 +24771,34 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="H134" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I134" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="J134" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K134" t="n">
         <v>2.12</v>
       </c>
       <c r="L134" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M134" t="n">
         <v>1.07</v>
       </c>
       <c r="N134" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O134" t="n">
         <v>1.33</v>
       </c>
       <c r="P134" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q134" t="n">
         <v>2</v>
@@ -24813,22 +24813,22 @@
         <v>2.9</v>
       </c>
       <c r="U134" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V134" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W134" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="X134" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y134" t="n">
         <v>9.75</v>
       </c>
       <c r="Z134" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA134" t="n">
         <v>21</v>
@@ -24837,79 +24837,79 @@
         <v>32</v>
       </c>
       <c r="AC134" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD134" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE134" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF134" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG134" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH134" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI134" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ134" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK134" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL134" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM134" t="n">
         <v>37</v>
       </c>
       <c r="AN134" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="AO134" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP134" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ134" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR134" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS134" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT134" t="n">
         <v>2.85</v>
       </c>
       <c r="AU134" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV134" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW134" t="n">
         <v>51</v>
       </c>
       <c r="AX134" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY134" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ134" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA134" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB134" t="n">
         <v>100</v>
@@ -25135,22 +25135,22 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="H136" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I136" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J136" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="K136" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L136" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M136" t="n">
         <v>1.06</v>
@@ -25174,16 +25174,16 @@
         <v>1.39</v>
       </c>
       <c r="T136" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U136" t="n">
         <v>1.65</v>
       </c>
       <c r="V136" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W136" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X136" t="n">
         <v>10.75</v>
@@ -25192,94 +25192,94 @@
         <v>8.5</v>
       </c>
       <c r="Z136" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA136" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB136" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC136" t="n">
         <v>7.5</v>
       </c>
       <c r="AD136" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE136" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF136" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG136" t="n">
         <v>350</v>
       </c>
       <c r="AH136" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AI136" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ136" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK136" t="n">
         <v>45</v>
       </c>
       <c r="AL136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM136" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN136" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO136" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP136" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ136" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR136" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS136" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT136" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU136" t="n">
         <v>6.8</v>
       </c>
       <c r="AV136" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW136" t="n">
         <v>51</v>
       </c>
       <c r="AX136" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY136" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AZ136" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA136" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BB136" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC136" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD136" t="n">
         <v>51</v>
@@ -25317,22 +25317,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H137" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I137" t="n">
         <v>4.65</v>
       </c>
       <c r="J137" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="K137" t="n">
         <v>2.15</v>
       </c>
       <c r="L137" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="M137" t="n">
         <v>1.05</v>
@@ -25356,28 +25356,28 @@
         <v>1.4</v>
       </c>
       <c r="T137" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="U137" t="n">
         <v>1.82</v>
       </c>
       <c r="V137" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W137" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X137" t="n">
         <v>7.8</v>
       </c>
       <c r="Y137" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z137" t="n">
         <v>12.5</v>
       </c>
       <c r="AA137" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB137" t="n">
         <v>26</v>
@@ -25389,19 +25389,19 @@
         <v>7.2</v>
       </c>
       <c r="AE137" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG137" t="n">
         <v>600</v>
       </c>
       <c r="AH137" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI137" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ137" t="n">
         <v>15</v>
@@ -25413,19 +25413,19 @@
         <v>45</v>
       </c>
       <c r="AM137" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN137" t="n">
         <v>3.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP137" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ137" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR137" t="n">
         <v>65</v>
@@ -25434,10 +25434,10 @@
         <v>250</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU137" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV137" t="n">
         <v>75</v>
@@ -25449,13 +25449,13 @@
         <v>6.3</v>
       </c>
       <c r="AY137" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ137" t="n">
         <v>32</v>
       </c>
       <c r="BA137" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB137" t="n">
         <v>200</v>
@@ -26773,16 +26773,16 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H145" t="n">
         <v>3.25</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J145" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K145" t="n">
         <v>2.2</v>
@@ -26815,19 +26815,19 @@
         <v>3</v>
       </c>
       <c r="U145" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V145" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W145" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y145" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z145" t="n">
         <v>23</v>
@@ -26854,7 +26854,7 @@
         <v>151</v>
       </c>
       <c r="AH145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI145" t="n">
         <v>15</v>
@@ -26866,7 +26866,7 @@
         <v>29</v>
       </c>
       <c r="AL145" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM145" t="n">
         <v>29</v>
@@ -26902,7 +26902,7 @@
         <v>81</v>
       </c>
       <c r="AX145" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY145" t="n">
         <v>15</v>
@@ -26955,19 +26955,19 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H146" t="n">
         <v>3.3</v>
       </c>
       <c r="I146" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J146" t="n">
         <v>2.88</v>
       </c>
       <c r="K146" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L146" t="n">
         <v>4</v>
@@ -26985,10 +26985,10 @@
         <v>3.25</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R146" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S146" t="n">
         <v>1.44</v>
@@ -27003,16 +27003,16 @@
         <v>1.83</v>
       </c>
       <c r="W146" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X146" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y146" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y146" t="n">
-        <v>9</v>
-      </c>
       <c r="Z146" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA146" t="n">
         <v>19</v>
@@ -27021,10 +27021,10 @@
         <v>29</v>
       </c>
       <c r="AC146" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD146" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE146" t="n">
         <v>15</v>
@@ -27033,7 +27033,7 @@
         <v>51</v>
       </c>
       <c r="AG146" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH146" t="n">
         <v>9.5</v>
@@ -27042,19 +27042,19 @@
         <v>17</v>
       </c>
       <c r="AJ146" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK146" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL146" t="n">
         <v>29</v>
       </c>
       <c r="AM146" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN146" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO146" t="n">
         <v>12</v>
@@ -27069,13 +27069,13 @@
         <v>67</v>
       </c>
       <c r="AS146" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT146" t="n">
         <v>2.63</v>
       </c>
       <c r="AU146" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV146" t="n">
         <v>51</v>
@@ -27084,22 +27084,22 @@
         <v>81</v>
       </c>
       <c r="AX146" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY146" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ146" t="n">
         <v>29</v>
       </c>
       <c r="BA146" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB146" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC146" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD146" t="n">
         <v>81</v>
@@ -27167,10 +27167,10 @@
         <v>3.75</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R147" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S147" t="n">
         <v>1.36</v>
@@ -27683,19 +27683,19 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H150" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I150" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J150" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K150" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L150" t="n">
         <v>7</v>
@@ -27707,22 +27707,22 @@
         <v>13</v>
       </c>
       <c r="O150" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P150" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R150" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S150" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T150" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U150" t="n">
         <v>1.95</v>
@@ -27731,19 +27731,19 @@
         <v>1.8</v>
       </c>
       <c r="W150" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X150" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y150" t="n">
         <v>8.5</v>
       </c>
       <c r="Z150" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB150" t="n">
         <v>26</v>
@@ -27752,22 +27752,22 @@
         <v>13</v>
       </c>
       <c r="AD150" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE150" t="n">
         <v>21</v>
       </c>
       <c r="AF150" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG150" t="n">
         <v>351</v>
       </c>
       <c r="AH150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI150" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ150" t="n">
         <v>21</v>
@@ -27785,7 +27785,7 @@
         <v>3.4</v>
       </c>
       <c r="AO150" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP150" t="n">
         <v>17</v>
@@ -27800,7 +27800,7 @@
         <v>126</v>
       </c>
       <c r="AT150" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU150" t="n">
         <v>9</v>
@@ -27815,7 +27815,7 @@
         <v>8.5</v>
       </c>
       <c r="AY150" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ150" t="n">
         <v>41</v>
@@ -28077,10 +28077,10 @@
         <v>5</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R152" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S152" t="n">
         <v>1.29</v>
@@ -28975,10 +28975,10 @@
         <v>3.25</v>
       </c>
       <c r="M157" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O157" t="n">
         <v>1.2</v>
@@ -28987,10 +28987,10 @@
         <v>4.33</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R157" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S157" t="n">
         <v>1.33</v>
@@ -29139,13 +29139,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H158" t="n">
         <v>3.6</v>
       </c>
       <c r="I158" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J158" t="n">
         <v>3</v>
@@ -29199,7 +29199,7 @@
         <v>26</v>
       </c>
       <c r="AA158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB158" t="n">
         <v>21</v>
@@ -29232,7 +29232,7 @@
         <v>26</v>
       </c>
       <c r="AL158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM158" t="n">
         <v>21</v>
@@ -29685,34 +29685,34 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H161" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I161" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J161" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="K161" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L161" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N161" t="n">
+        <v>23</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P161" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M161" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N161" t="n">
-        <v>21</v>
-      </c>
-      <c r="O161" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P161" t="n">
-        <v>6</v>
       </c>
       <c r="Q161" t="n">
         <v>1.4</v>
@@ -29727,22 +29727,22 @@
         <v>4</v>
       </c>
       <c r="U161" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V161" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X161" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y161" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z161" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA161" t="n">
         <v>10</v>
@@ -29751,19 +29751,19 @@
         <v>21</v>
       </c>
       <c r="AC161" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD161" t="n">
         <v>12</v>
       </c>
       <c r="AE161" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF161" t="n">
         <v>51</v>
       </c>
       <c r="AG161" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH161" t="n">
         <v>23</v>
@@ -29778,7 +29778,7 @@
         <v>81</v>
       </c>
       <c r="AL161" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM161" t="n">
         <v>41</v>
@@ -29787,16 +29787,16 @@
         <v>3.6</v>
       </c>
       <c r="AO161" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP161" t="n">
         <v>15</v>
       </c>
       <c r="AQ161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR161" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS161" t="n">
         <v>81</v>
@@ -29805,31 +29805,31 @@
         <v>4</v>
       </c>
       <c r="AU161" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV161" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW161" t="n">
         <v>251</v>
       </c>
       <c r="AX161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY161" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ161" t="n">
         <v>34</v>
       </c>
       <c r="BA161" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB161" t="n">
         <v>126</v>
       </c>
-      <c r="BB161" t="n">
-        <v>101</v>
-      </c>
       <c r="BC161" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD161" t="n">
         <v>301</v>
@@ -29867,13 +29867,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H162" t="n">
         <v>3.8</v>
       </c>
       <c r="I162" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J162" t="n">
         <v>4.5</v>
@@ -29882,7 +29882,7 @@
         <v>2.3</v>
       </c>
       <c r="L162" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M162" t="n">
         <v>1.04</v>
@@ -29915,13 +29915,13 @@
         <v>2.1</v>
       </c>
       <c r="W162" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X162" t="n">
         <v>23</v>
       </c>
       <c r="Y162" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z162" t="n">
         <v>41</v>
@@ -29936,16 +29936,16 @@
         <v>13</v>
       </c>
       <c r="AD162" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE162" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF162" t="n">
         <v>41</v>
       </c>
       <c r="AG162" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH162" t="n">
         <v>8.5</v>
@@ -29966,10 +29966,10 @@
         <v>23</v>
       </c>
       <c r="AN162" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO162" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP162" t="n">
         <v>26</v>
@@ -30002,7 +30002,7 @@
         <v>9</v>
       </c>
       <c r="AZ162" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA162" t="n">
         <v>29</v>
@@ -30437,16 +30437,16 @@
         <v>11</v>
       </c>
       <c r="O165" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P165" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R165" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S165" t="n">
         <v>1.4</v>
@@ -30595,13 +30595,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H166" t="n">
         <v>3</v>
       </c>
       <c r="I166" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J166" t="n">
         <v>3.2</v>
@@ -30613,10 +30613,10 @@
         <v>3.5</v>
       </c>
       <c r="M166" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N166" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O166" t="n">
         <v>1.33</v>
@@ -30625,10 +30625,10 @@
         <v>3.25</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R166" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S166" t="n">
         <v>1.44</v>
@@ -30658,7 +30658,7 @@
         <v>21</v>
       </c>
       <c r="AB166" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC166" t="n">
         <v>8.5</v>
@@ -30676,10 +30676,10 @@
         <v>251</v>
       </c>
       <c r="AH166" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI166" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ166" t="n">
         <v>11</v>
@@ -30697,13 +30697,13 @@
         <v>4.5</v>
       </c>
       <c r="AO166" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP166" t="n">
         <v>23</v>
       </c>
       <c r="AQ166" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR166" t="n">
         <v>67</v>
@@ -30727,7 +30727,7 @@
         <v>4.75</v>
       </c>
       <c r="AY166" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ166" t="n">
         <v>26</v>
@@ -31141,127 +31141,127 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="H169" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="I169" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="J169" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="K169" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L169" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="M169" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N169" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="O169" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P169" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R169" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S169" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T169" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U169" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V169" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W169" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X169" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Y169" t="n">
         <v>8.25</v>
       </c>
       <c r="Z169" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AA169" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB169" t="n">
         <v>30</v>
       </c>
       <c r="AC169" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD169" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE169" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AF169" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG169" t="n">
         <v>900</v>
       </c>
       <c r="AH169" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI169" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ169" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK169" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AL169" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM169" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN169" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO169" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="AP169" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ169" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AR169" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AS169" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AU169" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AV169" t="n">
         <v>90</v>
@@ -31270,22 +31270,22 @@
         <v>81</v>
       </c>
       <c r="AX169" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AY169" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ169" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BA169" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB169" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC169" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BD169" t="n">
         <v>81</v>
@@ -31505,13 +31505,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H171" t="n">
         <v>2.9</v>
       </c>
       <c r="I171" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J171" t="n">
         <v>3.25</v>
@@ -31529,10 +31529,10 @@
         <v>8</v>
       </c>
       <c r="O171" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P171" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q171" t="n">
         <v>2.25</v>
@@ -31556,22 +31556,22 @@
         <v>7.5</v>
       </c>
       <c r="X171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y171" t="n">
         <v>10</v>
       </c>
       <c r="Z171" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA171" t="n">
         <v>23</v>
-      </c>
-      <c r="AA171" t="n">
-        <v>21</v>
       </c>
       <c r="AB171" t="n">
         <v>34</v>
       </c>
       <c r="AC171" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD171" t="n">
         <v>6</v>
@@ -31586,7 +31586,7 @@
         <v>301</v>
       </c>
       <c r="AH171" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI171" t="n">
         <v>13</v>
@@ -31604,7 +31604,7 @@
         <v>41</v>
       </c>
       <c r="AN171" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO171" t="n">
         <v>15</v>
@@ -31690,10 +31690,10 @@
         <v>2.55</v>
       </c>
       <c r="H172" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I172" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J172" t="n">
         <v>3.4</v>
@@ -31753,10 +31753,10 @@
         <v>41</v>
       </c>
       <c r="AC172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD172" t="n">
         <v>6</v>
-      </c>
-      <c r="AD172" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE172" t="n">
         <v>17</v>
@@ -31819,13 +31819,13 @@
         <v>4.75</v>
       </c>
       <c r="AY172" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ172" t="n">
         <v>34</v>
       </c>
       <c r="BA172" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB172" t="n">
         <v>101</v>
@@ -31893,16 +31893,16 @@
         <v>19</v>
       </c>
       <c r="O173" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P173" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q173" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R173" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S173" t="n">
         <v>1.25</v>
@@ -31992,7 +31992,7 @@
         <v>8</v>
       </c>
       <c r="AV173" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW173" t="n">
         <v>451</v>
@@ -32051,22 +32051,22 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H174" t="n">
         <v>5</v>
       </c>
       <c r="I174" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L174" t="n">
         <v>5</v>
-      </c>
-      <c r="J174" t="n">
-        <v>2</v>
-      </c>
-      <c r="K174" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L174" t="n">
-        <v>4.75</v>
       </c>
       <c r="M174" t="n">
         <v>1.01</v>
@@ -32075,10 +32075,10 @@
         <v>26</v>
       </c>
       <c r="O174" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P174" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q174" t="n">
         <v>1.36</v>
@@ -32099,10 +32099,10 @@
         <v>2.5</v>
       </c>
       <c r="W174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X174" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y174" t="n">
         <v>9</v>
@@ -32135,16 +32135,16 @@
         <v>21</v>
       </c>
       <c r="AI174" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ174" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK174" t="n">
         <v>51</v>
       </c>
       <c r="AL174" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM174" t="n">
         <v>29</v>
@@ -32159,7 +32159,7 @@
         <v>13</v>
       </c>
       <c r="AQ174" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR174" t="n">
         <v>34</v>
@@ -32171,7 +32171,7 @@
         <v>4.33</v>
       </c>
       <c r="AU174" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV174" t="n">
         <v>41</v>
@@ -32189,7 +32189,7 @@
         <v>23</v>
       </c>
       <c r="BA174" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB174" t="n">
         <v>67</v>
@@ -32233,7 +32233,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="H175" t="n">
         <v>3.35</v>
@@ -32254,7 +32254,7 @@
         <v>1.05</v>
       </c>
       <c r="N175" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O175" t="n">
         <v>1.25</v>
@@ -32287,7 +32287,7 @@
         <v>13</v>
       </c>
       <c r="Y175" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z175" t="n">
         <v>27</v>
@@ -32299,7 +32299,7 @@
         <v>26</v>
       </c>
       <c r="AC175" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD175" t="n">
         <v>6.6</v>
@@ -32332,13 +32332,13 @@
         <v>26</v>
       </c>
       <c r="AN175" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AO175" t="n">
         <v>13</v>
       </c>
       <c r="AP175" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ175" t="n">
         <v>55</v>
@@ -32362,7 +32362,7 @@
         <v>51</v>
       </c>
       <c r="AX175" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AY175" t="n">
         <v>13.5</v>
@@ -32371,7 +32371,7 @@
         <v>19.5</v>
       </c>
       <c r="BA175" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB175" t="n">
         <v>80</v>
@@ -32418,34 +32418,34 @@
         <v>1.78</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I176" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J176" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="K176" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L176" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M176" t="n">
         <v>1.06</v>
       </c>
       <c r="N176" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O176" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P176" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R176" t="n">
         <v>1.42</v>
@@ -32457,25 +32457,25 @@
         <v>2.15</v>
       </c>
       <c r="U176" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V176" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W176" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="X176" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y176" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z176" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA176" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB176" t="n">
         <v>45</v>
@@ -32484,10 +32484,10 @@
         <v>5.9</v>
       </c>
       <c r="AD176" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE176" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF176" t="n">
         <v>150</v>
@@ -32496,37 +32496,37 @@
         <v>201</v>
       </c>
       <c r="AH176" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI176" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ176" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK176" t="n">
         <v>120</v>
       </c>
       <c r="AL176" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM176" t="n">
         <v>80</v>
-      </c>
-      <c r="AM176" t="n">
-        <v>100</v>
       </c>
       <c r="AN176" t="n">
         <v>3.35</v>
       </c>
       <c r="AO176" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP176" t="n">
         <v>23</v>
       </c>
       <c r="AQ176" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR176" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS176" t="n">
         <v>400</v>
@@ -32535,28 +32535,28 @@
         <v>2.12</v>
       </c>
       <c r="AU176" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV176" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW176" t="n">
         <v>51</v>
       </c>
       <c r="AX176" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AY176" t="n">
         <v>35</v>
       </c>
       <c r="AZ176" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BA176" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB176" t="n">
         <v>300</v>
-      </c>
-      <c r="BB176" t="n">
-        <v>350</v>
       </c>
       <c r="BC176" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-06.xlsx
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
         <v>1.57</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
         <v>2.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2063,10 +2063,10 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
         <v>17</v>
@@ -2087,7 +2087,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
         <v>8</v>
@@ -2096,16 +2096,16 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
@@ -2117,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>7</v>
@@ -2135,7 +2135,7 @@
         <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
         <v>3.4</v>
@@ -2147,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX9" t="n">
         <v>3.75</v>
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
         <v>6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="S12" t="n">
         <v>1.17</v>
@@ -2618,7 +2618,7 @@
         <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
@@ -2633,37 +2633,37 @@
         <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
         <v>101</v>
       </c>
       <c r="AH12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
         <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
       </c>
       <c r="AN12" t="n">
         <v>4</v>
@@ -2675,28 +2675,28 @@
         <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AT12" t="n">
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2711,7 +2711,7 @@
         <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>176</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
         <v>2.63</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
@@ -3507,10 +3507,10 @@
         <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3537,13 +3537,13 @@
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3558,7 +3558,7 @@
         <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -3573,7 +3573,7 @@
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
         <v>5.5</v>
@@ -3591,7 +3591,7 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
         <v>3.25</v>
@@ -3600,10 +3600,10 @@
         <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX17" t="n">
         <v>4.33</v>
@@ -3621,7 +3621,7 @@
         <v>51</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD17" t="n">
         <v>151</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4417,10 +4417,10 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S22" t="n">
         <v>1.36</v>
@@ -4429,25 +4429,25 @@
         <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
+        <v>13</v>
+      </c>
+      <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
         <v>15</v>
       </c>
-      <c r="X22" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>17</v>
-      </c>
       <c r="Z22" t="n">
         <v>51</v>
       </c>
       <c r="AA22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
         <v>41</v>
@@ -4456,58 +4456,58 @@
         <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>8.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP22" t="n">
         <v>29</v>
       </c>
-      <c r="AP22" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4516,19 +4516,19 @@
         <v>451</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AZ22" t="n">
         <v>19</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC22" t="n">
         <v>126</v>
@@ -4963,10 +4963,10 @@
         <v>3.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -5124,13 +5124,13 @@
         <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
         <v>1.95</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -5145,10 +5145,10 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S26" t="n">
         <v>1.53</v>
@@ -5181,7 +5181,7 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -5208,13 +5208,13 @@
         <v>26</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
         <v>17</v>
@@ -5247,7 +5247,7 @@
         <v>4.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ26" t="n">
         <v>29</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K34" t="n">
         <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -6601,10 +6601,10 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6619,10 +6619,10 @@
         <v>2.05</v>
       </c>
       <c r="W34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -6634,10 +6634,10 @@
         <v>17</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>6.5</v>
@@ -6655,13 +6655,13 @@
         <v>11</v>
       </c>
       <c r="AI34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
         <v>12</v>
       </c>
       <c r="AK34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="n">
         <v>26</v>
@@ -6670,7 +6670,7 @@
         <v>34</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO34" t="n">
         <v>11</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>2.25</v>
       </c>
       <c r="L35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -6804,7 +6804,7 @@
         <v>10</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>10</v>
@@ -6837,7 +6837,7 @@
         <v>10</v>
       </c>
       <c r="AI35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
         <v>10</v>
@@ -6855,7 +6855,7 @@
         <v>4.75</v>
       </c>
       <c r="AO35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP35" t="n">
         <v>21</v>
@@ -6885,7 +6885,7 @@
         <v>4.75</v>
       </c>
       <c r="AY35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ35" t="n">
         <v>21</v>
@@ -7848,16 +7848,16 @@
         <v>1.2</v>
       </c>
       <c r="H41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K41" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L41" t="n">
         <v>12</v>
@@ -7866,7 +7866,7 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
@@ -7875,28 +7875,28 @@
         <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -7911,28 +7911,28 @@
         <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD41" t="n">
         <v>13</v>
       </c>
       <c r="AE41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG41" t="n">
         <v>351</v>
       </c>
       <c r="AH41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
         <v>51</v>
       </c>
       <c r="AJ41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="n">
         <v>201</v>
@@ -7947,7 +7947,7 @@
         <v>3</v>
       </c>
       <c r="AO41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP41" t="n">
         <v>21</v>
@@ -7962,13 +7962,13 @@
         <v>201</v>
       </c>
       <c r="AT41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU41" t="n">
         <v>12</v>
       </c>
       <c r="AV41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW41" t="n">
         <v>51</v>
@@ -7980,7 +7980,7 @@
         <v>67</v>
       </c>
       <c r="AZ41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA41" t="n">
         <v>351</v>
@@ -8209,28 +8209,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L43" t="n">
         <v>3.4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -8239,43 +8239,43 @@
         <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA43" t="n">
         <v>23</v>
       </c>
-      <c r="AA43" t="n">
-        <v>21</v>
-      </c>
       <c r="AB43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD43" t="n">
         <v>6</v>
@@ -8287,19 +8287,19 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ43" t="n">
         <v>11</v>
       </c>
       <c r="AK43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL43" t="n">
         <v>23</v>
@@ -8308,28 +8308,28 @@
         <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO43" t="n">
         <v>15</v>
       </c>
       <c r="AP43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ43" t="n">
         <v>51</v>
       </c>
       <c r="AR43" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8338,7 +8338,7 @@
         <v>126</v>
       </c>
       <c r="AX43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY43" t="n">
         <v>15</v>
@@ -8350,7 +8350,7 @@
         <v>51</v>
       </c>
       <c r="BB43" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC43" t="n">
         <v>201</v>
@@ -8391,28 +8391,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K44" t="n">
         <v>2.38</v>
       </c>
       <c r="L44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
         <v>1.2</v>
@@ -8427,10 +8427,10 @@
         <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U44" t="n">
         <v>1.67</v>
@@ -8448,7 +8448,7 @@
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA44" t="n">
         <v>13</v>
@@ -8460,7 +8460,7 @@
         <v>13</v>
       </c>
       <c r="AD44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE44" t="n">
         <v>13</v>
@@ -8472,7 +8472,7 @@
         <v>151</v>
       </c>
       <c r="AH44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
         <v>26</v>
@@ -8487,19 +8487,19 @@
         <v>34</v>
       </c>
       <c r="AM44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP44" t="n">
         <v>17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR44" t="n">
         <v>41</v>
@@ -8508,7 +8508,7 @@
         <v>101</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU44" t="n">
         <v>7.5</v>
@@ -8529,7 +8529,7 @@
         <v>26</v>
       </c>
       <c r="BA44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB44" t="n">
         <v>81</v>
@@ -8573,28 +8573,28 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
         <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K45" t="n">
         <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -8630,7 +8630,7 @@
         <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8648,7 +8648,7 @@
         <v>21</v>
       </c>
       <c r="AF45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG45" t="n">
         <v>351</v>
@@ -8675,13 +8675,13 @@
         <v>3.25</v>
       </c>
       <c r="AO45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP45" t="n">
         <v>21</v>
       </c>
       <c r="AQ45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR45" t="n">
         <v>51</v>
@@ -8702,7 +8702,7 @@
         <v>126</v>
       </c>
       <c r="AX45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY45" t="n">
         <v>41</v>
@@ -8776,7 +8776,7 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O46" t="n">
         <v>1.4</v>
@@ -8785,10 +8785,10 @@
         <v>2.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S46" t="n">
         <v>1.5</v>
@@ -8937,28 +8937,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H47" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J47" t="n">
         <v>2.88</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.1</v>
       </c>
       <c r="K47" t="n">
         <v>1.91</v>
       </c>
       <c r="L47" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N47" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O47" t="n">
         <v>1.53</v>
@@ -8988,16 +8988,16 @@
         <v>5.5</v>
       </c>
       <c r="X47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y47" t="n">
         <v>10</v>
       </c>
       <c r="Z47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA47" t="n">
         <v>21</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>23</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
@@ -9018,34 +9018,34 @@
         <v>201</v>
       </c>
       <c r="AH47" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI47" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM47" t="n">
         <v>51</v>
       </c>
       <c r="AN47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP47" t="n">
         <v>29</v>
       </c>
       <c r="AQ47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR47" t="n">
         <v>81</v>
@@ -9069,16 +9069,16 @@
         <v>5.5</v>
       </c>
       <c r="AY47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB47" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC47" t="n">
         <v>351</v>
@@ -9119,22 +9119,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="J48" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
@@ -9143,16 +9143,16 @@
         <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S48" t="n">
         <v>1.44</v>
@@ -9161,22 +9161,22 @@
         <v>2.63</v>
       </c>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V48" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W48" t="n">
         <v>6</v>
       </c>
       <c r="X48" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA48" t="n">
         <v>15</v>
@@ -9185,13 +9185,13 @@
         <v>34</v>
       </c>
       <c r="AC48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE48" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
         <v>67</v>
@@ -9200,34 +9200,34 @@
         <v>900</v>
       </c>
       <c r="AH48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI48" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM48" t="n">
         <v>51</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO48" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AP48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ48" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR48" t="n">
         <v>51</v>
@@ -9239,7 +9239,7 @@
         <v>2.63</v>
       </c>
       <c r="AU48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV48" t="n">
         <v>67</v>
@@ -9248,22 +9248,22 @@
         <v>126</v>
       </c>
       <c r="AX48" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY48" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA48" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB48" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC48" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD48" t="n">
         <v>126</v>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H50" t="n">
         <v>5.25</v>
@@ -9501,10 +9501,10 @@
         <v>11</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
         <v>1.25</v>
@@ -9525,10 +9525,10 @@
         <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V50" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W50" t="n">
         <v>6</v>
@@ -9549,7 +9549,7 @@
         <v>41</v>
       </c>
       <c r="AC50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
         <v>11</v>
@@ -10229,10 +10229,10 @@
         <v>4.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
         <v>1.25</v>
@@ -10241,10 +10241,10 @@
         <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -11124,52 +11124,52 @@
         <v>4.75</v>
       </c>
       <c r="H59" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I59" t="n">
         <v>1.7</v>
       </c>
       <c r="J59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K59" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L59" t="n">
         <v>2.25</v>
       </c>
       <c r="M59" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N59" t="n">
+        <v>13</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W59" t="n">
         <v>15</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T59" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U59" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V59" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W59" t="n">
-        <v>17</v>
       </c>
       <c r="X59" t="n">
         <v>26</v>
@@ -11187,10 +11187,10 @@
         <v>34</v>
       </c>
       <c r="AC59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE59" t="n">
         <v>13</v>
@@ -11202,19 +11202,19 @@
         <v>151</v>
       </c>
       <c r="AH59" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ59" t="n">
         <v>8.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM59" t="n">
         <v>21</v>
@@ -11229,7 +11229,7 @@
         <v>26</v>
       </c>
       <c r="AQ59" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR59" t="n">
         <v>81</v>
@@ -11238,19 +11238,19 @@
         <v>151</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU59" t="n">
         <v>7.5</v>
       </c>
       <c r="AV59" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW59" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AX59" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY59" t="n">
         <v>8.5</v>
@@ -11324,7 +11324,7 @@
         <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O60" t="n">
         <v>1.17</v>
@@ -11503,10 +11503,10 @@
         <v>8.5</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.3</v>
@@ -11682,7 +11682,7 @@
         <v>2.2</v>
       </c>
       <c r="L62" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -11691,16 +11691,16 @@
         <v>10</v>
       </c>
       <c r="O62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R62" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S62" t="n">
         <v>1.4</v>
@@ -11709,13 +11709,13 @@
         <v>2.75</v>
       </c>
       <c r="U62" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V62" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X62" t="n">
         <v>9</v>
@@ -11724,16 +11724,16 @@
         <v>8.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA62" t="n">
         <v>15</v>
       </c>
       <c r="AB62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD62" t="n">
         <v>6.5</v>
@@ -11748,13 +11748,13 @@
         <v>251</v>
       </c>
       <c r="AH62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI62" t="n">
         <v>21</v>
       </c>
       <c r="AJ62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK62" t="n">
         <v>41</v>
@@ -13669,28 +13669,28 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I73" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J73" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K73" t="n">
         <v>2.5</v>
       </c>
       <c r="L73" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M73" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O73" t="n">
         <v>1.17</v>
@@ -13705,43 +13705,43 @@
         <v>2.4</v>
       </c>
       <c r="S73" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T73" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U73" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V73" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W73" t="n">
         <v>10</v>
       </c>
       <c r="X73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y73" t="n">
         <v>8.5</v>
       </c>
       <c r="Z73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA73" t="n">
         <v>13</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>12</v>
       </c>
       <c r="AB73" t="n">
         <v>19</v>
       </c>
       <c r="AC73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF73" t="n">
         <v>41</v>
@@ -13753,16 +13753,16 @@
         <v>17</v>
       </c>
       <c r="AI73" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ73" t="n">
         <v>15</v>
       </c>
       <c r="AK73" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL73" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM73" t="n">
         <v>29</v>
@@ -13771,13 +13771,13 @@
         <v>4</v>
       </c>
       <c r="AO73" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP73" t="n">
         <v>15</v>
       </c>
       <c r="AQ73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR73" t="n">
         <v>41</v>
@@ -13786,7 +13786,7 @@
         <v>81</v>
       </c>
       <c r="AT73" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU73" t="n">
         <v>7.5</v>
@@ -13798,19 +13798,19 @@
         <v>351</v>
       </c>
       <c r="AX73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ73" t="n">
         <v>23</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>26</v>
       </c>
       <c r="BA73" t="n">
         <v>67</v>
       </c>
       <c r="BB73" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC73" t="n">
         <v>126</v>
@@ -14397,22 +14397,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="H77" t="n">
         <v>3.8</v>
       </c>
       <c r="I77" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J77" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="K77" t="n">
         <v>2.45</v>
       </c>
       <c r="L77" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="M77" t="n">
         <v>1.02</v>
@@ -14421,46 +14421,46 @@
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P77" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R77" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="S77" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T77" t="n">
         <v>3.7</v>
       </c>
       <c r="U77" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="V77" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="W77" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB77" t="n">
         <v>17</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>18</v>
       </c>
       <c r="AC77" t="n">
         <v>10</v>
@@ -14472,46 +14472,46 @@
         <v>10.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG77" t="n">
         <v>120</v>
       </c>
       <c r="AH77" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AJ77" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AK77" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM77" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN77" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AO77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP77" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR77" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS77" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT77" t="n">
         <v>3.7</v>
@@ -14526,22 +14526,22 @@
         <v>350</v>
       </c>
       <c r="AX77" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AY77" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AZ77" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA77" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BB77" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BC77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BD77" t="n">
         <v>51</v>
@@ -14761,22 +14761,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>4.75</v>
       </c>
       <c r="I79" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K79" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L79" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M79" t="n">
         <v>1.02</v>
@@ -14797,31 +14797,31 @@
         <v>2.82</v>
       </c>
       <c r="S79" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T79" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="U79" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V79" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W79" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X79" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y79" t="n">
         <v>8.5</v>
       </c>
       <c r="Z79" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA79" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB79" t="n">
         <v>17.5</v>
@@ -14830,7 +14830,7 @@
         <v>10</v>
       </c>
       <c r="AD79" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE79" t="n">
         <v>14.5</v>
@@ -14839,19 +14839,19 @@
         <v>45</v>
       </c>
       <c r="AG79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH79" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ79" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK79" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL79" t="n">
         <v>55</v>
@@ -14863,37 +14863,37 @@
         <v>3.7</v>
       </c>
       <c r="AO79" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AP79" t="n">
         <v>12</v>
       </c>
       <c r="AQ79" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AR79" t="n">
         <v>30</v>
       </c>
       <c r="AS79" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT79" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AU79" t="n">
         <v>7</v>
       </c>
       <c r="AV79" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW79" t="n">
         <v>500</v>
       </c>
       <c r="AX79" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AY79" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ79" t="n">
         <v>27</v>
@@ -14943,46 +14943,46 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H80" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="J80" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="K80" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="L80" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="M80" t="n">
         <v>1.02</v>
       </c>
       <c r="N80" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O80" t="n">
         <v>1.09</v>
       </c>
       <c r="P80" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="R80" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="S80" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T80" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="U80" t="n">
         <v>1.34</v>
@@ -14991,7 +14991,7 @@
         <v>3</v>
       </c>
       <c r="W80" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X80" t="n">
         <v>14</v>
@@ -15000,22 +15000,22 @@
         <v>9</v>
       </c>
       <c r="Z80" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA80" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB80" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC80" t="n">
         <v>32</v>
       </c>
       <c r="AD80" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF80" t="n">
         <v>27</v>
@@ -15024,43 +15024,43 @@
         <v>110</v>
       </c>
       <c r="AH80" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI80" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ80" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL80" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM80" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO80" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AP80" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AR80" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AS80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AT80" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AU80" t="n">
         <v>6.2</v>
@@ -15072,22 +15072,22 @@
         <v>300</v>
       </c>
       <c r="AX80" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AY80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ80" t="n">
         <v>19</v>
       </c>
-      <c r="AZ80" t="n">
-        <v>17.5</v>
-      </c>
       <c r="BA80" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB80" t="n">
         <v>80</v>
       </c>
-      <c r="BB80" t="n">
-        <v>70</v>
-      </c>
       <c r="BC80" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD80" t="n">
         <v>51</v>
@@ -15307,22 +15307,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H82" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I82" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K82" t="n">
         <v>2.2</v>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M82" t="n">
         <v>1.06</v>
@@ -15343,10 +15343,10 @@
         <v>1.75</v>
       </c>
       <c r="S82" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T82" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U82" t="n">
         <v>2</v>
@@ -15373,7 +15373,7 @@
         <v>29</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD82" t="n">
         <v>7.5</v>
@@ -15385,10 +15385,10 @@
         <v>67</v>
       </c>
       <c r="AG82" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI82" t="n">
         <v>26</v>
@@ -15415,7 +15415,7 @@
         <v>21</v>
       </c>
       <c r="AQ82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR82" t="n">
         <v>51</v>
@@ -15424,7 +15424,7 @@
         <v>151</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU82" t="n">
         <v>9</v>
@@ -15489,22 +15489,22 @@
         </is>
       </c>
       <c r="G83" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J83" t="n">
         <v>5.5</v>
-      </c>
-      <c r="H83" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J83" t="n">
-        <v>6</v>
       </c>
       <c r="K83" t="n">
         <v>2.5</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M83" t="n">
         <v>1.03</v>
@@ -15525,10 +15525,10 @@
         <v>2.3</v>
       </c>
       <c r="S83" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T83" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U83" t="n">
         <v>1.73</v>
@@ -15546,7 +15546,7 @@
         <v>17</v>
       </c>
       <c r="Z83" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA83" t="n">
         <v>41</v>
@@ -15558,22 +15558,22 @@
         <v>15</v>
       </c>
       <c r="AD83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF83" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG83" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ83" t="n">
         <v>8.5</v>
@@ -15585,7 +15585,7 @@
         <v>12</v>
       </c>
       <c r="AM83" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN83" t="n">
         <v>7.5</v>
@@ -15594,19 +15594,19 @@
         <v>29</v>
       </c>
       <c r="AP83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ83" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR83" t="n">
         <v>101</v>
       </c>
       <c r="AS83" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT83" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU83" t="n">
         <v>8</v>
@@ -15618,7 +15618,7 @@
         <v>51</v>
       </c>
       <c r="AX83" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY83" t="n">
         <v>7.5</v>
@@ -18795,10 +18795,10 @@
         <v>4.33</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S101" t="n">
         <v>1.33</v>
@@ -19129,28 +19129,28 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J103" t="n">
         <v>1.83</v>
       </c>
       <c r="K103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M103" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N103" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O103" t="n">
         <v>1.33</v>
@@ -19159,16 +19159,16 @@
         <v>3.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R103" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S103" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T103" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U103" t="n">
         <v>2.63</v>
@@ -19177,10 +19177,10 @@
         <v>1.44</v>
       </c>
       <c r="W103" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X103" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y103" t="n">
         <v>10</v>
@@ -19189,7 +19189,7 @@
         <v>7.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB103" t="n">
         <v>41</v>
@@ -19198,13 +19198,13 @@
         <v>8</v>
       </c>
       <c r="AD103" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE103" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF103" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG103" t="n">
         <v>101</v>
@@ -19243,16 +19243,16 @@
         <v>51</v>
       </c>
       <c r="AS103" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV103" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW103" t="n">
         <v>51</v>
@@ -19267,7 +19267,7 @@
         <v>51</v>
       </c>
       <c r="BA103" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB103" t="n">
         <v>351</v>
@@ -20069,10 +20069,10 @@
         <v>2.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R108" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S108" t="n">
         <v>1.57</v>
@@ -20117,7 +20117,7 @@
         <v>67</v>
       </c>
       <c r="AG108" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH108" t="n">
         <v>7</v>
@@ -20585,22 +20585,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="H111" t="n">
         <v>3.3</v>
       </c>
       <c r="I111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J111" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2.88</v>
       </c>
       <c r="K111" t="n">
         <v>2.2</v>
       </c>
       <c r="L111" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M111" t="n">
         <v>1.05</v>
@@ -20615,10 +20615,10 @@
         <v>3.75</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S111" t="n">
         <v>1.36</v>
@@ -20633,19 +20633,19 @@
         <v>2.1</v>
       </c>
       <c r="W111" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z111" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB111" t="n">
         <v>26</v>
@@ -20657,7 +20657,7 @@
         <v>6.5</v>
       </c>
       <c r="AE111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF111" t="n">
         <v>41</v>
@@ -20666,28 +20666,28 @@
         <v>151</v>
       </c>
       <c r="AH111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK111" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM111" t="n">
         <v>29</v>
       </c>
       <c r="AN111" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP111" t="n">
         <v>21</v>
@@ -20699,7 +20699,7 @@
         <v>51</v>
       </c>
       <c r="AS111" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT111" t="n">
         <v>3</v>
@@ -20714,10 +20714,10 @@
         <v>501</v>
       </c>
       <c r="AX111" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ111" t="n">
         <v>23</v>
@@ -21868,7 +21868,7 @@
         <v>1.25</v>
       </c>
       <c r="J118" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K118" t="n">
         <v>2.75</v>
@@ -21949,7 +21949,7 @@
         <v>9</v>
       </c>
       <c r="AK118" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL118" t="n">
         <v>11</v>
@@ -21958,7 +21958,7 @@
         <v>26</v>
       </c>
       <c r="AN118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO118" t="n">
         <v>41</v>
@@ -22041,7 +22041,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H119" t="n">
         <v>4.33</v>
@@ -22053,10 +22053,10 @@
         <v>1.91</v>
       </c>
       <c r="K119" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L119" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M119" t="n">
         <v>1.03</v>
@@ -22089,7 +22089,7 @@
         <v>2.2</v>
       </c>
       <c r="W119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X119" t="n">
         <v>8.5</v>
@@ -22110,7 +22110,7 @@
         <v>17</v>
       </c>
       <c r="AD119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE119" t="n">
         <v>15</v>
@@ -23315,28 +23315,28 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H126" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J126" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K126" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L126" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M126" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O126" t="n">
         <v>1.22</v>
@@ -23345,10 +23345,10 @@
         <v>4</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R126" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S126" t="n">
         <v>1.33</v>
@@ -23357,22 +23357,22 @@
         <v>3.25</v>
       </c>
       <c r="U126" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V126" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W126" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X126" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y126" t="n">
         <v>9</v>
       </c>
       <c r="Z126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA126" t="n">
         <v>12</v>
@@ -23384,13 +23384,13 @@
         <v>13</v>
       </c>
       <c r="AD126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE126" t="n">
         <v>23</v>
       </c>
       <c r="AF126" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG126" t="n">
         <v>1000</v>
@@ -23405,7 +23405,7 @@
         <v>21</v>
       </c>
       <c r="AK126" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL126" t="n">
         <v>51</v>
@@ -23423,13 +23423,13 @@
         <v>19</v>
       </c>
       <c r="AQ126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR126" t="n">
         <v>41</v>
       </c>
       <c r="AS126" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT126" t="n">
         <v>3.25</v>
@@ -23438,13 +23438,13 @@
         <v>9.5</v>
       </c>
       <c r="AV126" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW126" t="n">
         <v>51</v>
       </c>
       <c r="AX126" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY126" t="n">
         <v>41</v>
@@ -23453,13 +23453,13 @@
         <v>41</v>
       </c>
       <c r="BA126" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB126" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC126" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD126" t="n">
         <v>51</v>
@@ -23861,46 +23861,46 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="H129" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="I129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J129" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K129" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M129" t="n">
         <v>1.01</v>
       </c>
       <c r="N129" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O129" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P129" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="R129" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="S129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T129" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U129" t="n">
         <v>2.2</v>
@@ -23909,16 +23909,16 @@
         <v>1.62</v>
       </c>
       <c r="W129" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z129" t="n">
         <v>7</v>
-      </c>
-      <c r="Y129" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z129" t="n">
-        <v>6.5</v>
       </c>
       <c r="AA129" t="n">
         <v>11</v>
@@ -23927,13 +23927,13 @@
         <v>34</v>
       </c>
       <c r="AC129" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE129" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF129" t="n">
         <v>81</v>
@@ -23945,22 +23945,22 @@
         <v>41</v>
       </c>
       <c r="AI129" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ129" t="n">
         <v>41</v>
       </c>
       <c r="AK129" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AL129" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM129" t="n">
         <v>101</v>
       </c>
-      <c r="AM129" t="n">
-        <v>81</v>
-      </c>
       <c r="AN129" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO129" t="n">
         <v>4.5</v>
@@ -23969,19 +23969,19 @@
         <v>15</v>
       </c>
       <c r="AQ129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR129" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS129" t="n">
         <v>101</v>
       </c>
       <c r="AT129" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU129" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV129" t="n">
         <v>67</v>
@@ -23990,7 +23990,7 @@
         <v>451</v>
       </c>
       <c r="AX129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY129" t="n">
         <v>67</v>
@@ -23999,13 +23999,13 @@
         <v>51</v>
       </c>
       <c r="BA129" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BB129" t="n">
         <v>301</v>
       </c>
       <c r="BC129" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD129" t="n">
         <v>151</v>
@@ -24234,7 +24234,7 @@
         <v>1.93</v>
       </c>
       <c r="J131" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="K131" t="n">
         <v>2.07</v>
@@ -24246,7 +24246,7 @@
         <v>1.09</v>
       </c>
       <c r="N131" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="O131" t="n">
         <v>1.4</v>
@@ -24261,10 +24261,10 @@
         <v>1.62</v>
       </c>
       <c r="S131" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T131" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="U131" t="n">
         <v>1.95</v>
@@ -24291,7 +24291,7 @@
         <v>50</v>
       </c>
       <c r="AC131" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AD131" t="n">
         <v>6.2</v>
@@ -24306,7 +24306,7 @@
         <v>900</v>
       </c>
       <c r="AH131" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI131" t="n">
         <v>8.25</v>
@@ -24327,7 +24327,7 @@
         <v>5.7</v>
       </c>
       <c r="AO131" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP131" t="n">
         <v>29</v>
@@ -24336,16 +24336,16 @@
         <v>120</v>
       </c>
       <c r="AR131" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS131" t="n">
         <v>400</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU131" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV131" t="n">
         <v>70</v>
@@ -24369,7 +24369,7 @@
         <v>75</v>
       </c>
       <c r="BC131" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD131" t="n">
         <v>51</v>
@@ -24407,148 +24407,148 @@
         </is>
       </c>
       <c r="G132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+      <c r="I132" t="n">
+        <v>10</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L132" t="n">
+        <v>8</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N132" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O132" t="n">
         <v>1.19</v>
       </c>
-      <c r="H132" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>13</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K132" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L132" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M132" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N132" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O132" t="n">
-        <v>1.15</v>
-      </c>
       <c r="P132" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="R132" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="S132" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T132" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="U132" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V132" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W132" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="X132" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y132" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="Z132" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="AA132" t="n">
         <v>10.75</v>
       </c>
       <c r="AB132" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC132" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD132" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AE132" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AF132" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL132" t="n">
         <v>120</v>
       </c>
-      <c r="AG132" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ132" t="n">
+      <c r="AM132" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR132" t="n">
         <v>40</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM132" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO132" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AP132" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ132" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AR132" t="n">
-        <v>37</v>
       </c>
       <c r="AS132" t="n">
         <v>200</v>
       </c>
       <c r="AT132" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="AU132" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AV132" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW132" t="n">
         <v>51</v>
       </c>
       <c r="AX132" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AY132" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AZ132" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA132" t="n">
         <v>450</v>
       </c>
       <c r="BB132" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC132" t="n">
         <v>51</v>
@@ -25317,151 +25317,151 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H137" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I137" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="K137" t="n">
         <v>2.15</v>
       </c>
       <c r="L137" t="n">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="M137" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N137" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O137" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P137" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q137" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V137" t="n">
         <v>1.85</v>
       </c>
-      <c r="R137" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S137" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T137" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U137" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V137" t="n">
-        <v>1.9</v>
-      </c>
       <c r="W137" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X137" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y137" t="n">
         <v>8</v>
       </c>
       <c r="Z137" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA137" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB137" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC137" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD137" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE137" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG137" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH137" t="n">
         <v>13.5</v>
       </c>
       <c r="AI137" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ137" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK137" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL137" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM137" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN137" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP137" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ137" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR137" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS137" t="n">
         <v>250</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU137" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AV137" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW137" t="n">
         <v>51</v>
       </c>
       <c r="AX137" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AY137" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AZ137" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BA137" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BB137" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC137" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD137" t="n">
         <v>51</v>
@@ -27137,22 +27137,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H147" t="n">
         <v>3.4</v>
       </c>
       <c r="I147" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J147" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K147" t="n">
         <v>2.2</v>
       </c>
       <c r="L147" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M147" t="n">
         <v>1.05</v>
@@ -27167,10 +27167,10 @@
         <v>3.75</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R147" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S147" t="n">
         <v>1.36</v>
@@ -27215,7 +27215,7 @@
         <v>41</v>
       </c>
       <c r="AG147" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH147" t="n">
         <v>11</v>
@@ -27230,10 +27230,10 @@
         <v>34</v>
       </c>
       <c r="AL147" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM147" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN147" t="n">
         <v>4.33</v>
@@ -27266,7 +27266,7 @@
         <v>81</v>
       </c>
       <c r="AX147" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY147" t="n">
         <v>17</v>
@@ -31529,10 +31529,10 @@
         <v>8</v>
       </c>
       <c r="O171" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P171" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q171" t="n">
         <v>2.25</v>
@@ -31717,10 +31717,10 @@
         <v>2.5</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R172" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S172" t="n">
         <v>1.57</v>
@@ -31869,22 +31869,22 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>4.75</v>
       </c>
       <c r="I173" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J173" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K173" t="n">
         <v>2.6</v>
       </c>
       <c r="L173" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M173" t="n">
         <v>1.02</v>
@@ -31911,22 +31911,22 @@
         <v>3.75</v>
       </c>
       <c r="U173" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V173" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W173" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X173" t="n">
         <v>9</v>
-      </c>
-      <c r="X173" t="n">
-        <v>8</v>
       </c>
       <c r="Y173" t="n">
         <v>8.5</v>
       </c>
       <c r="Z173" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA173" t="n">
         <v>11</v>
@@ -31938,25 +31938,25 @@
         <v>19</v>
       </c>
       <c r="AD173" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE173" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF173" t="n">
         <v>41</v>
       </c>
       <c r="AG173" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH173" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI173" t="n">
         <v>34</v>
       </c>
       <c r="AJ173" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK173" t="n">
         <v>67</v>
@@ -31968,7 +31968,7 @@
         <v>41</v>
       </c>
       <c r="AN173" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO173" t="n">
         <v>7</v>
@@ -31977,28 +31977,28 @@
         <v>15</v>
       </c>
       <c r="AQ173" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR173" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS173" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT173" t="n">
         <v>3.75</v>
       </c>
       <c r="AU173" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV173" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW173" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX173" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY173" t="n">
         <v>29</v>
@@ -32007,10 +32007,10 @@
         <v>29</v>
       </c>
       <c r="BA173" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB173" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC173" t="n">
         <v>151</v>
@@ -32051,16 +32051,16 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H174" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I174" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J174" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K174" t="n">
         <v>2.75</v>
@@ -32099,16 +32099,16 @@
         <v>2.5</v>
       </c>
       <c r="W174" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X174" t="n">
         <v>10</v>
       </c>
       <c r="Y174" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z174" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA174" t="n">
         <v>11</v>
@@ -32132,28 +32132,28 @@
         <v>101</v>
       </c>
       <c r="AH174" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI174" t="n">
         <v>34</v>
       </c>
       <c r="AJ174" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK174" t="n">
         <v>51</v>
       </c>
       <c r="AL174" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM174" t="n">
         <v>34</v>
-      </c>
-      <c r="AM174" t="n">
-        <v>29</v>
       </c>
       <c r="AN174" t="n">
         <v>4</v>
       </c>
       <c r="AO174" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP174" t="n">
         <v>13</v>
@@ -32162,7 +32162,7 @@
         <v>19</v>
       </c>
       <c r="AR174" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS174" t="n">
         <v>67</v>
@@ -32180,10 +32180,10 @@
         <v>251</v>
       </c>
       <c r="AX174" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY174" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ174" t="n">
         <v>23</v>
@@ -32192,10 +32192,10 @@
         <v>81</v>
       </c>
       <c r="BB174" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC174" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD174" t="n">
         <v>176</v>
@@ -32233,28 +32233,28 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H175" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I175" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="J175" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K175" t="n">
         <v>2.15</v>
       </c>
       <c r="L175" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M175" t="n">
         <v>1.05</v>
       </c>
       <c r="N175" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O175" t="n">
         <v>1.25</v>
@@ -32272,7 +32272,7 @@
         <v>1.37</v>
       </c>
       <c r="T175" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="U175" t="n">
         <v>1.62</v>
@@ -32281,25 +32281,25 @@
         <v>2.18</v>
       </c>
       <c r="W175" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="X175" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y175" t="n">
         <v>9.5</v>
       </c>
       <c r="Z175" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA175" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC175" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD175" t="n">
         <v>6.6</v>
@@ -32311,19 +32311,19 @@
         <v>50</v>
       </c>
       <c r="AG175" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH175" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AI175" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ175" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK175" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL175" t="n">
         <v>20</v>
@@ -32332,13 +32332,13 @@
         <v>26</v>
       </c>
       <c r="AN175" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AO175" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP175" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ175" t="n">
         <v>55</v>
@@ -32347,10 +32347,10 @@
         <v>80</v>
       </c>
       <c r="AS175" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU175" t="n">
         <v>6.7</v>
@@ -32362,19 +32362,19 @@
         <v>51</v>
       </c>
       <c r="AX175" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AY175" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ175" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA175" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB175" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC175" t="n">
         <v>250</v>
@@ -32415,34 +32415,34 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H176" t="n">
         <v>2.92</v>
       </c>
       <c r="I176" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J176" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K176" t="n">
         <v>1.87</v>
       </c>
       <c r="L176" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="M176" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N176" t="n">
-        <v>5.8</v>
+        <v>6.66</v>
       </c>
       <c r="O176" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P176" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q176" t="n">
         <v>2.47</v>
@@ -32457,37 +32457,37 @@
         <v>2.15</v>
       </c>
       <c r="U176" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V176" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W176" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="X176" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y176" t="n">
         <v>9</v>
       </c>
       <c r="Z176" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA176" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB176" t="n">
         <v>45</v>
       </c>
       <c r="AC176" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD176" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE176" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF176" t="n">
         <v>150</v>
@@ -32496,37 +32496,37 @@
         <v>201</v>
       </c>
       <c r="AH176" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI176" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ176" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AK176" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL176" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM176" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN176" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO176" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP176" t="n">
         <v>23</v>
       </c>
       <c r="AQ176" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR176" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS176" t="n">
         <v>400</v>
@@ -32535,7 +32535,7 @@
         <v>2.12</v>
       </c>
       <c r="AU176" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV176" t="n">
         <v>100</v>
@@ -32544,19 +32544,19 @@
         <v>51</v>
       </c>
       <c r="AX176" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AY176" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ176" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA176" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB176" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC176" t="n">
         <v>51</v>
@@ -32600,19 +32600,19 @@
         <v>2.15</v>
       </c>
       <c r="H177" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I177" t="n">
         <v>3.6</v>
       </c>
       <c r="J177" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K177" t="n">
         <v>1.98</v>
       </c>
       <c r="L177" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M177" t="n">
         <v>1.02</v>
@@ -32642,16 +32642,16 @@
         <v>1.78</v>
       </c>
       <c r="V177" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W177" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X177" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y177" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z177" t="n">
         <v>22</v>
@@ -32678,16 +32678,16 @@
         <v>600</v>
       </c>
       <c r="AH177" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI177" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ177" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK177" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL177" t="n">
         <v>37</v>
@@ -32702,16 +32702,16 @@
         <v>11</v>
       </c>
       <c r="AP177" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ177" t="n">
         <v>45</v>
       </c>
       <c r="AR177" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS177" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT177" t="n">
         <v>2.42</v>
@@ -32726,13 +32726,13 @@
         <v>51</v>
       </c>
       <c r="AX177" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AY177" t="n">
         <v>21</v>
       </c>
       <c r="AZ177" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA177" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-06.xlsx
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -8615,22 +8615,22 @@
         <v>2.75</v>
       </c>
       <c r="U45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X45" t="n">
         <v>6</v>
       </c>
       <c r="Y45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z45" t="n">
         <v>9</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8645,7 +8645,7 @@
         <v>8</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
         <v>81</v>
@@ -8660,34 +8660,34 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK45" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP45" t="n">
         <v>21</v>
       </c>
       <c r="AQ45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR45" t="n">
         <v>51</v>
       </c>
       <c r="AS45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT45" t="n">
         <v>2.75</v>
@@ -8696,13 +8696,13 @@
         <v>10</v>
       </c>
       <c r="AV45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW45" t="n">
         <v>126</v>
       </c>
       <c r="AX45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY45" t="n">
         <v>41</v>
@@ -8711,7 +8711,7 @@
         <v>41</v>
       </c>
       <c r="BA45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB45" t="n">
         <v>201</v>
@@ -8773,10 +8773,10 @@
         <v>7</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>1.4</v>
@@ -8785,10 +8785,10 @@
         <v>2.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
         <v>1.5</v>
@@ -8937,16 +8937,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H47" t="n">
         <v>2.9</v>
       </c>
       <c r="I47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K47" t="n">
         <v>1.91</v>
@@ -8955,10 +8955,10 @@
         <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O47" t="n">
         <v>1.53</v>
@@ -8979,16 +8979,16 @@
         <v>2.2</v>
       </c>
       <c r="U47" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y47" t="n">
         <v>10</v>
@@ -9021,7 +9021,7 @@
         <v>9</v>
       </c>
       <c r="AI47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ47" t="n">
         <v>17</v>
@@ -9057,7 +9057,7 @@
         <v>2.2</v>
       </c>
       <c r="AU47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV47" t="n">
         <v>81</v>
@@ -9066,7 +9066,7 @@
         <v>126</v>
       </c>
       <c r="AX47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY47" t="n">
         <v>26</v>
@@ -9131,100 +9131,100 @@
         <v>2.2</v>
       </c>
       <c r="K48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R48" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="S48" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T48" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V48" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X48" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB48" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD48" t="n">
         <v>7</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>900</v>
+        <v>301</v>
       </c>
       <c r="AH48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI48" t="n">
         <v>29</v>
       </c>
       <c r="AJ48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK48" t="n">
         <v>67</v>
       </c>
       <c r="AL48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM48" t="n">
         <v>51</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO48" t="n">
         <v>8</v>
       </c>
       <c r="AP48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ48" t="n">
         <v>26</v>
@@ -9233,37 +9233,37 @@
         <v>51</v>
       </c>
       <c r="AS48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU48" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW48" t="n">
         <v>126</v>
       </c>
       <c r="AX48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ48" t="n">
         <v>34</v>
       </c>
-      <c r="AZ48" t="n">
-        <v>41</v>
-      </c>
       <c r="BA48" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB48" t="n">
         <v>126</v>
       </c>
-      <c r="BB48" t="n">
-        <v>151</v>
-      </c>
       <c r="BC48" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD48" t="n">
         <v>126</v>
@@ -11667,28 +11667,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J62" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L62" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M62" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O62" t="n">
         <v>1.3</v>
@@ -11718,7 +11718,7 @@
         <v>7</v>
       </c>
       <c r="X62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y62" t="n">
         <v>8.5</v>
@@ -11733,7 +11733,7 @@
         <v>29</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD62" t="n">
         <v>6.5</v>
@@ -11745,10 +11745,10 @@
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI62" t="n">
         <v>21</v>
@@ -11757,19 +11757,19 @@
         <v>15</v>
       </c>
       <c r="AK62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM62" t="n">
         <v>41</v>
       </c>
       <c r="AN62" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP62" t="n">
         <v>21</v>
@@ -11787,7 +11787,7 @@
         <v>2.75</v>
       </c>
       <c r="AU62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV62" t="n">
         <v>51</v>
@@ -11799,19 +11799,19 @@
         <v>6</v>
       </c>
       <c r="AY62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB62" t="n">
         <v>101</v>
       </c>
       <c r="BC62" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD62" t="n">
         <v>51</v>
@@ -19887,10 +19887,10 @@
         <v>3</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R107" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S107" t="n">
         <v>1.44</v>
@@ -20039,16 +20039,16 @@
         </is>
       </c>
       <c r="G108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I108" t="n">
         <v>2.63</v>
       </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.75</v>
-      </c>
       <c r="J108" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K108" t="n">
         <v>1.91</v>
@@ -20057,34 +20057,34 @@
         <v>3.6</v>
       </c>
       <c r="M108" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O108" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P108" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R108" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V108" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T108" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U108" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V108" t="n">
-        <v>1.67</v>
       </c>
       <c r="W108" t="n">
         <v>6.5</v>
@@ -20093,37 +20093,37 @@
         <v>12</v>
       </c>
       <c r="Y108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB108" t="n">
         <v>41</v>
       </c>
       <c r="AC108" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD108" t="n">
         <v>6</v>
       </c>
       <c r="AE108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF108" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG108" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH108" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ108" t="n">
         <v>11</v>
@@ -20132,49 +20132,49 @@
         <v>29</v>
       </c>
       <c r="AL108" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM108" t="n">
         <v>41</v>
       </c>
       <c r="AN108" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO108" t="n">
         <v>17</v>
       </c>
       <c r="AP108" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ108" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR108" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV108" t="n">
         <v>81</v>
       </c>
-      <c r="AS108" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT108" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU108" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV108" t="n">
-        <v>67</v>
-      </c>
       <c r="AW108" t="n">
         <v>51</v>
       </c>
       <c r="AX108" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY108" t="n">
         <v>17</v>
       </c>
       <c r="AZ108" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA108" t="n">
         <v>51</v>
@@ -20183,7 +20183,7 @@
         <v>101</v>
       </c>
       <c r="BC108" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD108" t="n">
         <v>51</v>
@@ -31687,28 +31687,28 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="H172" t="n">
         <v>2.88</v>
       </c>
       <c r="I172" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="J172" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K172" t="n">
         <v>1.91</v>
       </c>
       <c r="L172" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M172" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N172" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O172" t="n">
         <v>1.5</v>
@@ -31735,19 +31735,19 @@
         <v>1.67</v>
       </c>
       <c r="W172" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X172" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y172" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z172" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA172" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB172" t="n">
         <v>41</v>
@@ -31759,7 +31759,7 @@
         <v>6</v>
       </c>
       <c r="AE172" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF172" t="n">
         <v>67</v>
@@ -31768,25 +31768,25 @@
         <v>301</v>
       </c>
       <c r="AH172" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI172" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ172" t="n">
         <v>13</v>
       </c>
-      <c r="AJ172" t="n">
-        <v>12</v>
-      </c>
       <c r="AK172" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL172" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM172" t="n">
         <v>41</v>
       </c>
       <c r="AN172" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO172" t="n">
         <v>15</v>
@@ -31816,16 +31816,16 @@
         <v>51</v>
       </c>
       <c r="AX172" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY172" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ172" t="n">
         <v>34</v>
       </c>
       <c r="BA172" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB172" t="n">
         <v>101</v>
@@ -32051,13 +32051,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H174" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I174" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J174" t="n">
         <v>1.91</v>
@@ -32072,7 +32072,7 @@
         <v>1.01</v>
       </c>
       <c r="N174" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O174" t="n">
         <v>1.1</v>
@@ -32081,10 +32081,10 @@
         <v>7</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R174" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S174" t="n">
         <v>1.2</v>
@@ -32099,13 +32099,13 @@
         <v>2.5</v>
       </c>
       <c r="W174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X174" t="n">
         <v>10</v>
       </c>
       <c r="Y174" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z174" t="n">
         <v>12</v>
@@ -32132,16 +32132,16 @@
         <v>101</v>
       </c>
       <c r="AH174" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI174" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ174" t="n">
         <v>19</v>
       </c>
       <c r="AK174" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL174" t="n">
         <v>41</v>
@@ -32159,7 +32159,7 @@
         <v>13</v>
       </c>
       <c r="AQ174" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR174" t="n">
         <v>29</v>
@@ -32192,10 +32192,10 @@
         <v>81</v>
       </c>
       <c r="BB174" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC174" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD174" t="n">
         <v>176</v>
@@ -32233,76 +32233,76 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="H175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J175" t="n">
         <v>3.3</v>
       </c>
-      <c r="I175" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J175" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K175" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L175" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="M175" t="n">
         <v>1.05</v>
       </c>
       <c r="N175" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O175" t="n">
         <v>1.25</v>
       </c>
       <c r="P175" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R175" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S175" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T175" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="U175" t="n">
         <v>1.62</v>
       </c>
       <c r="V175" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W175" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X175" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y175" t="n">
         <v>10</v>
       </c>
-      <c r="X175" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y175" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z175" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA175" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB175" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC175" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD175" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE175" t="n">
         <v>12.5</v>
@@ -32311,49 +32311,49 @@
         <v>50</v>
       </c>
       <c r="AG175" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH175" t="n">
         <v>9.25</v>
       </c>
       <c r="AI175" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ175" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK175" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL175" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AM175" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN175" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="AO175" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP175" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ175" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR175" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS175" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU175" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV175" t="n">
         <v>55</v>
@@ -32362,22 +32362,22 @@
         <v>51</v>
       </c>
       <c r="AX175" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AY175" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AZ175" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA175" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="BB175" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BC175" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD175" t="n">
         <v>51</v>
@@ -32597,34 +32597,34 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H177" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I177" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J177" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K177" t="n">
         <v>1.98</v>
       </c>
       <c r="L177" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M177" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N177" t="n">
-        <v>7.1</v>
+        <v>8.77</v>
       </c>
       <c r="O177" t="n">
         <v>1.37</v>
       </c>
       <c r="P177" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q177" t="n">
         <v>2.07</v>
@@ -32636,7 +32636,7 @@
         <v>1.42</v>
       </c>
       <c r="T177" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U177" t="n">
         <v>1.78</v>
@@ -32651,7 +32651,7 @@
         <v>10.25</v>
       </c>
       <c r="Y177" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z177" t="n">
         <v>22</v>
@@ -32663,10 +32663,10 @@
         <v>30</v>
       </c>
       <c r="AC177" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD177" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE177" t="n">
         <v>14</v>
@@ -32681,16 +32681,16 @@
         <v>9</v>
       </c>
       <c r="AI177" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ177" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK177" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL177" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM177" t="n">
         <v>45</v>
@@ -32699,10 +32699,10 @@
         <v>4</v>
       </c>
       <c r="AO177" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP177" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ177" t="n">
         <v>45</v>
@@ -32720,16 +32720,16 @@
         <v>6.6</v>
       </c>
       <c r="AV177" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW177" t="n">
         <v>51</v>
       </c>
       <c r="AX177" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AY177" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ177" t="n">
         <v>26</v>
@@ -32741,7 +32741,7 @@
         <v>150</v>
       </c>
       <c r="BC177" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD177" t="n">
         <v>51</v>
